--- a/Översikt LINDESBERG.xlsx
+++ b/Översikt LINDESBERG.xlsx
@@ -575,7 +575,7 @@
         <v>45615</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         <v>45252</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
         <v>45905.90649305555</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44850.83328703704</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>45967.61619212963</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>44375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45810.54824074074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45905.90519675926</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>44406</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45905.89554398148</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>45964.63199074074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>45568.63905092593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>45099</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>44320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>45888.67560185185</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>45138</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>44484</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>45888.67765046296</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         <v>45099</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>45905.90789351852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>45905.83755787037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>45218</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>45940.69754629629</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>45845.75751157408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>45616.38605324074</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>44472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>45138</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>45670</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>45905.88938657408</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>45952.35611111111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>45964.62771990741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>45964.40112268519</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>45980.01497685185</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>44280</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>45021</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>44789</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>45615</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>45546.28121527778</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44375</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>44512</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44713.59363425926</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>44320</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>44679</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>45518</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>45575.54934027778</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>45645</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>45827.53077546296</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>44949</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>45922.49990740741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>45832.56153935185</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>45281</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>45645</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>45937.54982638889</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>45946.45171296296</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>45946.44423611111</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>45946.44790509259</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>45537.64484953704</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
         <v>45952.68596064814</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         <v>45953.69287037037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>44522</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         <v>45964.3965625</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>45881.42446759259</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         <v>45980.37108796297</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>45980.3659375</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>45618.58876157407</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>45698.46697916667</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>46038.45296296296</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>45478.39592592593</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>45614.68596064814</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44536</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>45250</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>45104.3483912037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>45475.92849537037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>45614.68287037037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>45782.5300462963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>45783.66537037037</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
         <v>44260.30453703704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>44242</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
         <v>44295.61297453703</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         <v>44889.5746875</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7776,7 +7776,7 @@
         <v>44267</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         <v>44431.69783564815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>44853.61925925926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>44495.87667824074</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>44447.51184027778</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>44453</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>44484</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>44508</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>44445.4953587963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>44284.70511574074</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>44271</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>44327</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
         <v>44503</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>44462</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>44613</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>44386</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>44280</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>44427.75243055556</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8832,7 +8832,7 @@
         <v>44300</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8889,7 +8889,7 @@
         <v>44441.66886574074</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         <v>44431.69723379629</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>44332</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>44722.78552083333</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>44721.53951388889</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>44577.82805555555</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44862</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>44460</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>44481</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>44754</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>44714</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>44638</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44627</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44790</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44676</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>44377</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>44377.44943287037</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>44603</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>44630</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>44629</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>44862</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>44713.61145833333</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>44375</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10220,7 +10220,7 @@
         <v>44671</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>44706.65927083333</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>44260.31335648148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44468.34099537037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>44257</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44259</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44418.58454861111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44577.84596064815</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44273</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44546.67978009259</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>44671</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44375</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44326</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44325</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44505.36354166667</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44823.37396990741</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44378.55319444444</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>44522.87423611111</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>44635.51386574074</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>44357</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>44820</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>44434.74203703704</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44693.66775462963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>44484.56523148148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>44691</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44694.29309027778</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>44305</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>44505</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>44490</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44629</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44425.40128472223</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44665</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44459.57613425926</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44447</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44432.68241898148</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>44432</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         <v>44594</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>44326.7296412037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>44487.51556712963</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12508,7 +12508,7 @@
         <v>44463</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>44497</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12622,7 +12622,7 @@
         <v>44456</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>44819</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>44733.71126157408</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>44672</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44825.99293981482</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44438.30614583333</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         <v>44449</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13031,7 +13031,7 @@
         <v>44622.69101851852</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>44875.47543981481</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44491</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44334.60293981482</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44526</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44389</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44446</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>44889.68100694445</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>44602</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>44389</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>44777</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>44665</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13715,7 +13715,7 @@
         <v>44451.78710648148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13772,7 +13772,7 @@
         <v>44502.49809027778</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13829,7 +13829,7 @@
         <v>44502</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13886,7 +13886,7 @@
         <v>44268.55900462963</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13943,7 +13943,7 @@
         <v>44481.34877314815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>44491</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>44784</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>44332.74105324074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>44384.56912037037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>44536</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>44453</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>44420.60616898148</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>44860</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>44451</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>44873.47148148148</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>44536</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>44267</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44376</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>44607.64115740741</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>44389</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>44539.31923611111</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>44539</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>44608</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44650.47945601852</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44479.58512731481</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>44618</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>44636.46935185185</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>44363</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>44511.39611111111</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>44490</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>44784.38697916667</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>45310</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>44698.62354166667</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
         <v>45736.30940972222</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15678,7 +15678,7 @@
         <v>45530</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>45518.71482638889</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>45289</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15849,7 +15849,7 @@
         <v>44445</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>45439.56605324074</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>44531.3575</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>45112.67952546296</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>44967.60165509259</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16139,7 +16139,7 @@
         <v>44389</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>45107</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16258,7 +16258,7 @@
         <v>44378.46403935185</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         <v>44683</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16372,7 +16372,7 @@
         <v>45532</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16429,7 +16429,7 @@
         <v>45604.58837962963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16486,7 +16486,7 @@
         <v>44974.55693287037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16543,7 +16543,7 @@
         <v>45404.55681712963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         <v>45030</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>45611.44960648148</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16724,7 +16724,7 @@
         <v>44943.73792824074</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16781,7 +16781,7 @@
         <v>45384.43418981481</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16838,7 +16838,7 @@
         <v>45646.63482638889</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>45158.41768518519</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>45755.68247685185</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>45054</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>45140</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>45580.73525462963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>45583</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>45751.50498842593</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         <v>45194</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17361,7 +17361,7 @@
         <v>45183.48666666666</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>44853.79818287037</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17475,7 +17475,7 @@
         <v>45568.64523148148</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17537,7 +17537,7 @@
         <v>45074</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17594,7 +17594,7 @@
         <v>45575.53690972222</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17656,7 +17656,7 @@
         <v>45575.56256944445</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         <v>45305</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17775,7 +17775,7 @@
         <v>45488.41480324074</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17832,7 +17832,7 @@
         <v>45075.44152777778</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>45310.87931712963</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>45344.6027662037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>45608</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>45330</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         <v>45610.7466087963</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>45243.62420138889</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18246,7 +18246,7 @@
         <v>45243</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>45749</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>45177.31795138889</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>45327</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18489,7 +18489,7 @@
         <v>45541.66916666667</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18551,7 +18551,7 @@
         <v>45749.42258101852</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18608,7 +18608,7 @@
         <v>44259</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>45097.38688657407</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18722,7 +18722,7 @@
         <v>45243</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18779,7 +18779,7 @@
         <v>45749.47251157407</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>44988</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18898,7 +18898,7 @@
         <v>45749.4737962963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>45272.57385416667</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>45497</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19069,7 +19069,7 @@
         <v>44803.64361111111</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>45369</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19183,7 +19183,7 @@
         <v>45461.62924768519</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>44378.46857638889</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>45077</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19364,7 +19364,7 @@
         <v>45162.5978125</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19421,7 +19421,7 @@
         <v>45744.57851851852</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19483,7 +19483,7 @@
         <v>45433.58099537037</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19540,7 +19540,7 @@
         <v>45691.36253472222</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19597,7 +19597,7 @@
         <v>45749</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19654,7 +19654,7 @@
         <v>44888.4577662037</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19711,7 +19711,7 @@
         <v>45729.60775462963</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>44928</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19825,7 +19825,7 @@
         <v>44902</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19882,7 +19882,7 @@
         <v>45590.37590277778</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19939,7 +19939,7 @@
         <v>45108.7553587963</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19996,7 +19996,7 @@
         <v>45803</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>45744.57673611111</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>45173.39315972223</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>45168.92155092592</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>45168.94197916667</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>45441.30899305556</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20353,7 +20353,7 @@
         <v>45441.30998842593</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>45804.45474537037</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>45804.67795138889</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>44979</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45887.56101851852</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>45804.45584490741</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20705,7 +20705,7 @@
         <v>45645.3712037037</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20767,7 +20767,7 @@
         <v>45889.67577546297</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>45889.66935185185</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20891,7 +20891,7 @@
         <v>45889.67290509259</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20953,7 +20953,7 @@
         <v>44300</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21010,7 +21010,7 @@
         <v>44480.58034722223</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21067,7 +21067,7 @@
         <v>45812.56952546296</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>45201</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21191,7 +21191,7 @@
         <v>45201.60283564815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>45329</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21315,7 +21315,7 @@
         <v>45518.71721064814</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21372,7 +21372,7 @@
         <v>45812.57143518519</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21434,7 +21434,7 @@
         <v>45812.57452546297</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>45812.57604166667</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21558,7 +21558,7 @@
         <v>45547.36590277778</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21615,7 +21615,7 @@
         <v>45048</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21672,7 +21672,7 @@
         <v>44574.50425925926</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>45895.4790625</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>45895.47704861111</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21853,7 +21853,7 @@
         <v>45895.48394675926</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>45895.49994212963</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21977,7 +21977,7 @@
         <v>45817.6455324074</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>45880</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>45610</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22148,7 +22148,7 @@
         <v>45895.48927083334</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>44551</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44675</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>45899.38057870371</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>45898.37138888889</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>45903.37475694445</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>45376.70292824074</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44865.600625</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>45820.61684027778</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>45902.3406712963</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>45821.37199074074</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22795,7 +22795,7 @@
         <v>45821.46135416667</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>45821.46486111111</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22919,7 +22919,7 @@
         <v>45821.44521990741</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>45103</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>44546.67222222222</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>45194</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>44908.49152777778</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>45471.40384259259</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         <v>45905.89143518519</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>45905.89236111111</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23390,7 +23390,7 @@
         <v>45707</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23447,7 +23447,7 @@
         <v>45471.52878472222</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>45905.89329861111</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23566,7 +23566,7 @@
         <v>45148</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23623,7 +23623,7 @@
         <v>45881.43759259259</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23680,7 +23680,7 @@
         <v>45152.34586805556</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23742,7 +23742,7 @@
         <v>45827.51862268519</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23804,7 +23804,7 @@
         <v>45826.52024305556</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23866,7 +23866,7 @@
         <v>45189.38135416667</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         <v>45912.63751157407</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23985,7 +23985,7 @@
         <v>45827.56939814815</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24047,7 +24047,7 @@
         <v>44577.81121527778</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24104,7 +24104,7 @@
         <v>45915.54983796296</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24161,7 +24161,7 @@
         <v>45915.49238425926</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24218,7 +24218,7 @@
         <v>45738.42981481482</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24275,7 +24275,7 @@
         <v>45912.63451388889</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24337,7 +24337,7 @@
         <v>45519.51627314815</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24399,7 +24399,7 @@
         <v>44900.36149305556</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24456,7 +24456,7 @@
         <v>45827.51753472222</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24518,7 +24518,7 @@
         <v>45827.51956018519</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24580,7 +24580,7 @@
         <v>45099</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24642,7 +24642,7 @@
         <v>44503</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24699,7 +24699,7 @@
         <v>45912.63359953704</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24761,7 +24761,7 @@
         <v>45915.54439814815</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24818,7 +24818,7 @@
         <v>45917.31780092593</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24880,7 +24880,7 @@
         <v>44553.35407407407</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24937,7 +24937,7 @@
         <v>45594.63747685185</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24994,7 +24994,7 @@
         <v>44951.5830324074</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25051,7 +25051,7 @@
         <v>45827.51628472222</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25113,7 +25113,7 @@
         <v>45373.34383101852</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>45523</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>45131</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>45078.82620370371</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         <v>45068</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25403,7 +25403,7 @@
         <v>45188</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25460,7 +25460,7 @@
         <v>45218</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25522,7 +25522,7 @@
         <v>45266.58394675926</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         <v>45170</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25641,7 +25641,7 @@
         <v>45227.31859953704</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25698,7 +25698,7 @@
         <v>45832.76100694444</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25760,7 +25760,7 @@
         <v>45832.76491898148</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>45925.56173611111</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25884,7 +25884,7 @@
         <v>45384</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25941,7 +25941,7 @@
         <v>45832.49325231482</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26003,7 +26003,7 @@
         <v>45832.51255787037</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>45832.55810185185</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26127,7 +26127,7 @@
         <v>45575.55273148148</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26189,7 +26189,7 @@
         <v>45575.5547337963</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26251,7 +26251,7 @@
         <v>45575.55684027778</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45832.72778935185</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26375,7 +26375,7 @@
         <v>45832.5902662037</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26437,7 +26437,7 @@
         <v>45832.74418981482</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26499,7 +26499,7 @@
         <v>45714</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26556,7 +26556,7 @@
         <v>45642</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         <v>45925.70290509259</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26675,7 +26675,7 @@
         <v>45832.49579861111</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26737,7 +26737,7 @@
         <v>45832.51028935185</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26799,7 +26799,7 @@
         <v>45091.39362268519</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26856,7 +26856,7 @@
         <v>45201</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26918,7 +26918,7 @@
         <v>45618.58962962963</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26980,7 +26980,7 @@
         <v>45538</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27042,7 +27042,7 @@
         <v>45257.48188657407</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27099,7 +27099,7 @@
         <v>44420</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27156,7 +27156,7 @@
         <v>45835.68443287037</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27213,7 +27213,7 @@
         <v>45265.64142361111</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27270,7 +27270,7 @@
         <v>45685</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27327,7 +27327,7 @@
         <v>45614.68083333333</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27384,7 +27384,7 @@
         <v>44431</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27441,7 +27441,7 @@
         <v>45119.46452546296</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27503,7 +27503,7 @@
         <v>45348</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27560,7 +27560,7 @@
         <v>45926.62039351852</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27617,7 +27617,7 @@
         <v>45729.65171296296</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27674,7 +27674,7 @@
         <v>45138</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27736,7 +27736,7 @@
         <v>45931.57967592592</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27793,7 +27793,7 @@
         <v>45931.57756944445</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27850,7 +27850,7 @@
         <v>45488.42258101852</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27907,7 +27907,7 @@
         <v>45316</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27964,7 +27964,7 @@
         <v>45393.3562962963</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>45393.36060185185</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28088,7 +28088,7 @@
         <v>45838.46456018519</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28150,7 +28150,7 @@
         <v>45838.46408564815</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28212,7 +28212,7 @@
         <v>45222</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         <v>45516.4221412037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28331,7 +28331,7 @@
         <v>45932.68006944445</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28388,7 +28388,7 @@
         <v>44949</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28445,7 +28445,7 @@
         <v>45936.68452546297</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28502,7 +28502,7 @@
         <v>45936.49210648148</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28564,7 +28564,7 @@
         <v>44895</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28621,7 +28621,7 @@
         <v>45936.37523148148</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28683,7 +28683,7 @@
         <v>45936.36637731481</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28745,7 +28745,7 @@
         <v>45936.49026620371</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28807,7 +28807,7 @@
         <v>45323</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28864,7 +28864,7 @@
         <v>45936.37237268518</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28926,7 +28926,7 @@
         <v>45106</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28983,7 +28983,7 @@
         <v>45937.4484837963</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29045,7 +29045,7 @@
         <v>45937.54697916667</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>45840</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>45937.56420138889</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>45937.56798611111</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29288,7 +29288,7 @@
         <v>44990</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29345,7 +29345,7 @@
         <v>45937.71556712963</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29402,7 +29402,7 @@
         <v>45937.92319444445</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29459,7 +29459,7 @@
         <v>45357.34521990741</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29521,7 +29521,7 @@
         <v>45813</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29578,7 +29578,7 @@
         <v>45937.58590277778</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29640,7 +29640,7 @@
         <v>45938.39741898148</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29697,7 +29697,7 @@
         <v>45554.71863425926</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29759,7 +29759,7 @@
         <v>45844.5775</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29821,7 +29821,7 @@
         <v>45939.67951388889</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29883,7 +29883,7 @@
         <v>45769.98449074074</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>45072.42776620371</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>45845.49216435185</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30059,7 +30059,7 @@
         <v>45940.69862268519</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30121,7 +30121,7 @@
         <v>45477.70315972222</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30178,7 +30178,7 @@
         <v>45940.69521990741</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30240,7 +30240,7 @@
         <v>45520.32887731482</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30302,7 +30302,7 @@
         <v>45404.68190972223</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30364,7 +30364,7 @@
         <v>45940.69643518519</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30426,7 +30426,7 @@
         <v>45940.70018518518</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30488,7 +30488,7 @@
         <v>45252.78021990741</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30545,7 +30545,7 @@
         <v>44577.83484953704</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30602,7 +30602,7 @@
         <v>45943.45966435185</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30659,7 +30659,7 @@
         <v>45943.47649305555</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30721,7 +30721,7 @@
         <v>45077</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30783,7 +30783,7 @@
         <v>45077</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30845,7 +30845,7 @@
         <v>45077</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         <v>45844.57328703703</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30969,7 +30969,7 @@
         <v>45844.57527777777</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>45943.4603125</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>45845.4855787037</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>45845.76005787037</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>45845.75200231482</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31264,7 +31264,7 @@
         <v>45454.49679398148</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31321,7 +31321,7 @@
         <v>44846</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31378,7 +31378,7 @@
         <v>45947.62353009259</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31435,7 +31435,7 @@
         <v>45719.52871527777</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>45947.60508101852</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>45946.68859953704</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>45618</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31683,7 +31683,7 @@
         <v>45946.44216435185</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31745,7 +31745,7 @@
         <v>45947.40105324074</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31807,7 +31807,7 @@
         <v>45946.69616898148</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31864,7 +31864,7 @@
         <v>44594.84091435185</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31921,7 +31921,7 @@
         <v>44728</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31978,7 +31978,7 @@
         <v>45694</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32035,7 +32035,7 @@
         <v>45645.3737962963</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>45670.69458333333</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>45537.64621527777</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32216,7 +32216,7 @@
         <v>45854</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32273,7 +32273,7 @@
         <v>45177.33091435185</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32335,7 +32335,7 @@
         <v>45574.65189814815</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32397,7 +32397,7 @@
         <v>45854</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32454,7 +32454,7 @@
         <v>45093.48221064815</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32511,7 +32511,7 @@
         <v>45860.3857175926</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32568,7 +32568,7 @@
         <v>45860.36222222223</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32625,7 +32625,7 @@
         <v>45587</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32682,7 +32682,7 @@
         <v>45952.68358796297</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32744,7 +32744,7 @@
         <v>45769.66260416667</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32801,7 +32801,7 @@
         <v>45265.49225694445</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32858,7 +32858,7 @@
         <v>45952.70765046297</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32915,7 +32915,7 @@
         <v>45952.68001157408</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32977,7 +32977,7 @@
         <v>45952.68439814815</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33039,7 +33039,7 @@
         <v>45344.623125</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33096,7 +33096,7 @@
         <v>44425.40297453704</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33158,7 +33158,7 @@
         <v>45534.54032407407</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33220,7 +33220,7 @@
         <v>45699.65424768518</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33277,7 +33277,7 @@
         <v>45952.68271990741</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33339,7 +33339,7 @@
         <v>45952.68524305556</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33401,7 +33401,7 @@
         <v>45546.46497685185</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33463,7 +33463,7 @@
         <v>45953.61387731481</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33520,7 +33520,7 @@
         <v>45831</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33577,7 +33577,7 @@
         <v>45575.65721064815</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33639,7 +33639,7 @@
         <v>44449</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33696,7 +33696,7 @@
         <v>45957.36386574074</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33758,7 +33758,7 @@
         <v>44522</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33815,7 +33815,7 @@
         <v>45831</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33872,7 +33872,7 @@
         <v>45870</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33929,7 +33929,7 @@
         <v>45343.58587962963</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         <v>45870</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34043,7 +34043,7 @@
         <v>45684.5790162037</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34100,7 +34100,7 @@
         <v>45134.68158564815</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34157,7 +34157,7 @@
         <v>45870</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34214,7 +34214,7 @@
         <v>45954.35075231481</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34276,7 +34276,7 @@
         <v>45954.35387731482</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34338,7 +34338,7 @@
         <v>45237.67819444444</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34395,7 +34395,7 @@
         <v>45729.76231481481</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34452,7 +34452,7 @@
         <v>45749</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34509,7 +34509,7 @@
         <v>45958.79287037037</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34566,7 +34566,7 @@
         <v>44978</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34623,7 +34623,7 @@
         <v>45958.55577546296</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34685,7 +34685,7 @@
         <v>45870</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34742,7 +34742,7 @@
         <v>44868.36924768519</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34804,7 +34804,7 @@
         <v>45645</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         <v>45667</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34923,7 +34923,7 @@
         <v>45530</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34980,7 +34980,7 @@
         <v>44865.87770833333</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35037,7 +35037,7 @@
         <v>44990</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35094,7 +35094,7 @@
         <v>45874.40503472222</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35156,7 +35156,7 @@
         <v>44946</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35213,7 +35213,7 @@
         <v>45400.6709837963</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35275,7 +35275,7 @@
         <v>45173</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35332,7 +35332,7 @@
         <v>45877.64431712963</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35394,7 +35394,7 @@
         <v>45877.63989583333</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35456,7 +35456,7 @@
         <v>45877.64144675926</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35518,7 +35518,7 @@
         <v>45877.64605324074</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35580,7 +35580,7 @@
         <v>45877.65075231482</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35642,7 +35642,7 @@
         <v>45877.64847222222</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35704,7 +35704,7 @@
         <v>44791</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35761,7 +35761,7 @@
         <v>44902</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35823,7 +35823,7 @@
         <v>45877.64776620371</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35885,7 +35885,7 @@
         <v>45876.59166666667</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35942,7 +35942,7 @@
         <v>45877.64230324074</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36004,7 +36004,7 @@
         <v>45960</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36061,7 +36061,7 @@
         <v>45960.62986111111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36118,7 +36118,7 @@
         <v>45881.42791666667</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36175,7 +36175,7 @@
         <v>45880</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36232,7 +36232,7 @@
         <v>45880.46056712963</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36289,7 +36289,7 @@
         <v>45399.56596064815</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36351,7 +36351,7 @@
         <v>45880.28673611111</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36408,7 +36408,7 @@
         <v>45964.64599537037</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36470,7 +36470,7 @@
         <v>45964.34680555556</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36527,7 +36527,7 @@
         <v>45099.27354166667</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36589,7 +36589,7 @@
         <v>45685</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36646,7 +36646,7 @@
         <v>44308</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36708,7 +36708,7 @@
         <v>45881.59550925926</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36765,7 +36765,7 @@
         <v>45964.3550925926</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36822,7 +36822,7 @@
         <v>45964.64709490741</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36884,7 +36884,7 @@
         <v>45964.64778935185</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         <v>45880.3172337963</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37003,7 +37003,7 @@
         <v>45964.62796296296</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37060,7 +37060,7 @@
         <v>45586.55451388889</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37117,7 +37117,7 @@
         <v>45097.39893518519</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37174,7 +37174,7 @@
         <v>45967.7096875</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37231,7 +37231,7 @@
         <v>45548</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37293,7 +37293,7 @@
         <v>45548</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37355,7 +37355,7 @@
         <v>45440</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37412,7 +37412,7 @@
         <v>45968.63695601852</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37474,7 +37474,7 @@
         <v>45328</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37536,7 +37536,7 @@
         <v>45646.63839120371</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37593,7 +37593,7 @@
         <v>45341.56577546296</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37655,7 +37655,7 @@
         <v>45971.56197916667</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37712,7 +37712,7 @@
         <v>45971.57659722222</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37769,7 +37769,7 @@
         <v>45565</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         <v>45714.31533564815</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37883,7 +37883,7 @@
         <v>44970</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37940,7 +37940,7 @@
         <v>45884</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37997,7 +37997,7 @@
         <v>45974.61217592593</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38059,7 +38059,7 @@
         <v>45974.61344907407</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38121,7 +38121,7 @@
         <v>45974.53239583333</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38178,7 +38178,7 @@
         <v>45229</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38235,7 +38235,7 @@
         <v>45974.51283564815</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38292,7 +38292,7 @@
         <v>45538.34460648148</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38354,7 +38354,7 @@
         <v>45884.38858796296</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38411,7 +38411,7 @@
         <v>44355</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38473,7 +38473,7 @@
         <v>45978.71075231482</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38530,7 +38530,7 @@
         <v>44511</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38587,7 +38587,7 @@
         <v>45203.510625</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38644,7 +38644,7 @@
         <v>45229.66262731481</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         <v>45979.81347222222</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38768,7 +38768,7 @@
         <v>45980.01226851852</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38830,7 +38830,7 @@
         <v>45979.81403935186</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38892,7 +38892,7 @@
         <v>45980.36866898148</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38954,7 +38954,7 @@
         <v>45980.36988425926</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39016,7 +39016,7 @@
         <v>45979.97458333334</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39078,7 +39078,7 @@
         <v>45980.00710648148</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39140,7 +39140,7 @@
         <v>45980.00753472222</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39202,7 +39202,7 @@
         <v>45980.0115625</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39264,7 +39264,7 @@
         <v>45980.01553240741</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39326,7 +39326,7 @@
         <v>45980.3716087963</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39388,7 +39388,7 @@
         <v>45980.36633101852</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39450,7 +39450,7 @@
         <v>45980.36679398148</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39512,7 +39512,7 @@
         <v>44602.45490740741</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39569,7 +39569,7 @@
         <v>45574.65087962963</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39631,7 +39631,7 @@
         <v>45982.71017361111</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39688,7 +39688,7 @@
         <v>45085</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39745,7 +39745,7 @@
         <v>45738.43714120371</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39802,7 +39802,7 @@
         <v>45229</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39859,7 +39859,7 @@
         <v>45565.40700231482</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39916,7 +39916,7 @@
         <v>45987.60012731481</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39973,7 +39973,7 @@
         <v>45538.34796296297</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40035,7 +40035,7 @@
         <v>45303</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40092,7 +40092,7 @@
         <v>45471.38995370371</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40149,7 +40149,7 @@
         <v>44734.64337962963</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40206,7 +40206,7 @@
         <v>44906.73321759259</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40263,7 +40263,7 @@
         <v>45047.7181712963</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40320,7 +40320,7 @@
         <v>44424.61709490741</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40377,7 +40377,7 @@
         <v>46030.44277777777</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -40434,7 +40434,7 @@
         <v>45568.62625</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40496,7 +40496,7 @@
         <v>44984</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40553,7 +40553,7 @@
         <v>45273</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40610,7 +40610,7 @@
         <v>46030.47725694445</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40667,7 +40667,7 @@
         <v>45394.51289351852</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40724,7 +40724,7 @@
         <v>44236</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40801,7 +40801,7 @@
         <v>45653.53664351852</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40858,7 +40858,7 @@
         <v>45139.64328703703</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40920,7 +40920,7 @@
         <v>45618.59219907408</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40982,7 +40982,7 @@
         <v>46034.65601851852</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41039,7 +41039,7 @@
         <v>46031</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41096,7 +41096,7 @@
         <v>45698</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41153,7 +41153,7 @@
         <v>45355.70009259259</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41210,7 +41210,7 @@
         <v>45702</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41267,7 +41267,7 @@
         <v>44979</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41324,7 +41324,7 @@
         <v>44319</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -41381,7 +41381,7 @@
         <v>46035</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -41438,7 +41438,7 @@
         <v>45995</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41495,7 +41495,7 @@
         <v>46037.69133101852</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41552,7 +41552,7 @@
         <v>45995</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41609,7 +41609,7 @@
         <v>44958.58982638889</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         <v>46038.55849537037</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41723,7 +41723,7 @@
         <v>46038.59640046296</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41780,7 +41780,7 @@
         <v>46041.54181712963</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41837,7 +41837,7 @@
         <v>46038.61912037037</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41894,7 +41894,7 @@
         <v>45043.40300925926</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41951,7 +41951,7 @@
         <v>45694</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42013,7 +42013,7 @@
         <v>45999.43730324074</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42070,7 +42070,7 @@
         <v>45751.5056712963</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42127,7 +42127,7 @@
         <v>45233.42121527778</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42189,7 +42189,7 @@
         <v>46038.49269675926</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42246,7 +42246,7 @@
         <v>44981</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42303,7 +42303,7 @@
         <v>45642.66184027777</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -42360,7 +42360,7 @@
         <v>46041.68443287037</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42417,7 +42417,7 @@
         <v>46038.61067129629</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42474,7 +42474,7 @@
         <v>46038.58241898148</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42531,7 +42531,7 @@
         <v>45538.34193287037</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42593,7 +42593,7 @@
         <v>45005.35967592592</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42650,7 +42650,7 @@
         <v>45005.47820601852</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42712,7 +42712,7 @@
         <v>45628.59233796296</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42769,7 +42769,7 @@
         <v>45404.55239583334</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42831,7 +42831,7 @@
         <v>45404.55601851852</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42893,7 +42893,7 @@
         <v>44546.6679050926</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42950,7 +42950,7 @@
         <v>45768.49947916667</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43007,7 +43007,7 @@
         <v>45194</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43064,7 +43064,7 @@
         <v>44721.52627314815</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43121,7 +43121,7 @@
         <v>44876.35706018518</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43183,7 +43183,7 @@
         <v>45057</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43240,7 +43240,7 @@
         <v>45145</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43302,7 +43302,7 @@
         <v>46043.38744212963</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -43359,7 +43359,7 @@
         <v>44410.61837962963</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43421,7 +43421,7 @@
         <v>46002.62465277778</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43478,7 +43478,7 @@
         <v>45166.68493055556</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43540,7 +43540,7 @@
         <v>46002.60324074074</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43597,7 +43597,7 @@
         <v>45338</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43654,7 +43654,7 @@
         <v>45635.63706018519</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43711,7 +43711,7 @@
         <v>44441.70047453704</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43768,7 +43768,7 @@
         <v>46002.61762731482</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43825,7 +43825,7 @@
         <v>45726.33763888889</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43882,7 +43882,7 @@
         <v>45726.34090277777</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43939,7 +43939,7 @@
         <v>45159.44525462963</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43996,7 +43996,7 @@
         <v>45103.53614583334</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44053,7 +44053,7 @@
         <v>45982</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44110,7 +44110,7 @@
         <v>45982</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44167,7 +44167,7 @@
         <v>45061.53414351852</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44224,7 +44224,7 @@
         <v>46007.3708449074</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44281,7 +44281,7 @@
         <v>46049.84017361111</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -44338,7 +44338,7 @@
         <v>46029</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -44395,7 +44395,7 @@
         <v>45279</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44452,7 +44452,7 @@
         <v>45523.31621527778</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44509,7 +44509,7 @@
         <v>44833</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44566,7 +44566,7 @@
         <v>45272.36168981482</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44623,7 +44623,7 @@
         <v>46006.60633101852</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44685,7 +44685,7 @@
         <v>44927.72487268518</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44742,7 +44742,7 @@
         <v>45737.3846412037</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         <v>45559</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         <v>45274</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44923,7 +44923,7 @@
         <v>46009.67175925926</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44980,7 +44980,7 @@
         <v>45149</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>46009</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45099,7 +45099,7 @@
         <v>46051.53563657407</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         <v>45523.58565972222</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>45766.33309027777</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>46008.25765046296</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -45327,7 +45327,7 @@
         <v>46051.53689814815</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -45384,7 +45384,7 @@
         <v>45007</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45446,7 +45446,7 @@
         <v>45600.60071759259</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45503,7 +45503,7 @@
         <v>45036</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45560,7 +45560,7 @@
         <v>46008.26085648148</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45617,7 +45617,7 @@
         <v>44258</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45674,7 +45674,7 @@
         <v>45741.64491898148</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45731,7 +45731,7 @@
         <v>44389</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45793,7 +45793,7 @@
         <v>45518.71048611111</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45855,7 +45855,7 @@
         <v>45518.71202546296</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45912,7 +45912,7 @@
         <v>45518.71591435185</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45969,7 +45969,7 @@
         <v>45548</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46031,7 +46031,7 @@
         <v>46013</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46088,7 +46088,7 @@
         <v>46052.46519675926</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46145,7 +46145,7 @@
         <v>46002</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46202,7 +46202,7 @@
         <v>46002</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46259,7 +46259,7 @@
         <v>46043</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -46316,7 +46316,7 @@
         <v>46044</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -46373,7 +46373,7 @@
         <v>45125.41458333333</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46430,7 +46430,7 @@
         <v>45113</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46487,7 +46487,7 @@
         <v>44841</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46544,7 +46544,7 @@
         <v>46056.49075231481</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46601,7 +46601,7 @@
         <v>46056.40149305556</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46658,7 +46658,7 @@
         <v>45061.52474537037</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46715,7 +46715,7 @@
         <v>46056.40425925926</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46772,7 +46772,7 @@
         <v>45170</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46834,7 +46834,7 @@
         <v>45562.61158564815</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46891,7 +46891,7 @@
         <v>44371.47609953704</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46948,7 +46948,7 @@
         <v>45474.65005787037</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47010,7 +47010,7 @@
         <v>45511.40297453704</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47067,7 +47067,7 @@
         <v>46057.60342592592</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47124,7 +47124,7 @@
         <v>44978</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -47181,7 +47181,7 @@
         <v>44963.37709490741</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -47238,7 +47238,7 @@
         <v>46038</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -47295,7 +47295,7 @@
         <v>44389</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -47357,7 +47357,7 @@
         <v>46058.35196759259</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -47414,7 +47414,7 @@
         <v>45373.30434027778</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -47476,7 +47476,7 @@
         <v>45005</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47533,7 +47533,7 @@
         <v>46058.52864583334</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47590,7 +47590,7 @@
         <v>46058.30956018518</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47647,7 +47647,7 @@
         <v>45034.5174537037</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47704,7 +47704,7 @@
         <v>46058.38300925926</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47761,7 +47761,7 @@
         <v>44909</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47818,7 +47818,7 @@
         <v>45582.57542824074</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47880,7 +47880,7 @@
         <v>44425</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47942,7 +47942,7 @@
         <v>45635.69581018519</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47999,7 +47999,7 @@
         <v>44740.66997685185</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -48056,7 +48056,7 @@
         <v>44431</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -48113,7 +48113,7 @@
         <v>45411.42858796296</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -48170,7 +48170,7 @@
         <v>45194</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -48227,7 +48227,7 @@
         <v>45615.69570601852</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -48284,7 +48284,7 @@
         <v>45628.58975694444</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -48341,7 +48341,7 @@
         <v>45707</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -48398,7 +48398,7 @@
         <v>45756.49009259259</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -48455,7 +48455,7 @@
         <v>45702</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -48512,7 +48512,7 @@
         <v>45575.55570601852</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -48574,7 +48574,7 @@
         <v>45218</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48636,7 +48636,7 @@
         <v>44457</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48693,7 +48693,7 @@
         <v>44301</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48755,7 +48755,7 @@
         <v>45590.39471064815</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48812,7 +48812,7 @@
         <v>45434.65854166666</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48869,7 +48869,7 @@
         <v>45082.31421296296</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48931,7 +48931,7 @@
         <v>45072</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48993,7 +48993,7 @@
         <v>45537.42240740741</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -49050,7 +49050,7 @@
         <v>45519.52319444445</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -49112,7 +49112,7 @@
         <v>45412.54541666667</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -49169,7 +49169,7 @@
         <v>45387.24732638889</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -49226,7 +49226,7 @@
         <v>45387.2521875</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -49283,7 +49283,7 @@
         <v>45554.7158912037</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -49345,7 +49345,7 @@
         <v>45141.76530092592</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -49402,7 +49402,7 @@
         <v>45400.66995370371</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -49464,7 +49464,7 @@
         <v>44389</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -49521,7 +49521,7 @@
         <v>44970.51849537037</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -49578,7 +49578,7 @@
         <v>45194</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49635,7 +49635,7 @@
         <v>45218.488125</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -49697,7 +49697,7 @@
         <v>44866.79668981482</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49754,7 +49754,7 @@
         <v>45538</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49811,7 +49811,7 @@
         <v>45586</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49873,7 +49873,7 @@
         <v>44621.85737268518</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49930,7 +49930,7 @@
         <v>45009.64217592592</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49987,7 +49987,7 @@
         <v>44566</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -50044,7 +50044,7 @@
         <v>45667</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -50101,7 +50101,7 @@
         <v>45667</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -50163,7 +50163,7 @@
         <v>45139.63480324074</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -50225,7 +50225,7 @@
         <v>45575.57104166667</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -50282,7 +50282,7 @@
         <v>44602.45162037037</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -50339,7 +50339,7 @@
         <v>45103</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -50396,7 +50396,7 @@
         <v>45511.39445601852</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -50453,7 +50453,7 @@
         <v>44735.62539351852</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -50515,7 +50515,7 @@
         <v>45111</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -50572,7 +50572,7 @@
         <v>44950</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -50629,7 +50629,7 @@
         <v>44883</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -50686,7 +50686,7 @@
         <v>45254.68105324074</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -50748,7 +50748,7 @@
         <v>45525.7374537037</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50805,7 +50805,7 @@
         <v>45177.33991898148</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50867,7 +50867,7 @@
         <v>45251</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50924,7 +50924,7 @@
         <v>45393.35787037037</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50986,7 +50986,7 @@
         <v>45762.61817129629</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -51043,7 +51043,7 @@
         <v>45107</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -51100,7 +51100,7 @@
         <v>44902</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -51157,7 +51157,7 @@
         <v>45744.32981481482</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -51214,7 +51214,7 @@
         <v>45519.52232638889</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -51276,7 +51276,7 @@
         <v>45107</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -51338,7 +51338,7 @@
         <v>44822</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -51395,7 +51395,7 @@
         <v>45274</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -51452,7 +51452,7 @@
         <v>45687</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -51509,7 +51509,7 @@
         <v>44438</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -51571,7 +51571,7 @@
         <v>45254</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -51633,7 +51633,7 @@
         <v>45736.308125</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -51690,7 +51690,7 @@
         <v>45095</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -51747,7 +51747,7 @@
         <v>45571.71736111111</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51809,7 +51809,7 @@
         <v>45575.56686342593</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51871,7 +51871,7 @@
         <v>45575.56820601852</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -51933,7 +51933,7 @@
         <v>44916</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51990,7 +51990,7 @@
         <v>45170.45921296296</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -52052,7 +52052,7 @@
         <v>45546.68743055555</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -52114,7 +52114,7 @@
         <v>45211</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -52176,7 +52176,7 @@
         <v>44544</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -52233,7 +52233,7 @@
         <v>44473.6343287037</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -52290,7 +52290,7 @@
         <v>44484</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -52347,7 +52347,7 @@
         <v>45471.42659722222</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -52404,7 +52404,7 @@
         <v>45471.52072916667</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -52461,7 +52461,7 @@
         <v>45698</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -52523,7 +52523,7 @@
         <v>45698</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -52585,7 +52585,7 @@
         <v>45189</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -52642,7 +52642,7 @@
         <v>45372.40246527778</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -52699,7 +52699,7 @@
         <v>45079</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -52761,7 +52761,7 @@
         <v>45079</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -52823,7 +52823,7 @@
         <v>45462</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52880,7 +52880,7 @@
         <v>45575.53331018519</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -52942,7 +52942,7 @@
         <v>45575.54489583334</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -53004,7 +53004,7 @@
         <v>45441.48670138889</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -53061,7 +53061,7 @@
         <v>44306.6371412037</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -53118,7 +53118,7 @@
         <v>45553</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -53180,7 +53180,7 @@
         <v>45646</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -53242,7 +53242,7 @@
         <v>45729.65061342593</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -53299,7 +53299,7 @@
         <v>45008</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -53361,7 +53361,7 @@
         <v>45113</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -53418,7 +53418,7 @@
         <v>45095</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -53475,7 +53475,7 @@
         <v>45377.48265046296</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -53532,7 +53532,7 @@
         <v>44342.39703703704</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -53594,7 +53594,7 @@
         <v>45664</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -53651,7 +53651,7 @@
         <v>45736</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -53708,7 +53708,7 @@
         <v>45274</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -53765,7 +53765,7 @@
         <v>45280</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -53827,7 +53827,7 @@
         <v>44267</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53884,7 +53884,7 @@
         <v>44890.46174768519</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -53941,7 +53941,7 @@
         <v>45334</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -53998,7 +53998,7 @@
         <v>45516.59447916667</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -54055,7 +54055,7 @@
         <v>44276</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -54112,7 +54112,7 @@
         <v>44753</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -54169,7 +54169,7 @@
         <v>45614.5968287037</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -54226,7 +54226,7 @@
         <v>45251.696875</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -54283,7 +54283,7 @@
         <v>45643</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -54340,7 +54340,7 @@
         <v>45749</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -54397,7 +54397,7 @@
         <v>45569.35209490741</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -54454,7 +54454,7 @@
         <v>45618.59456018519</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -54516,7 +54516,7 @@
         <v>45119</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -54578,7 +54578,7 @@
         <v>44946.54424768518</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -54635,7 +54635,7 @@
         <v>45618.58622685185</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -54697,7 +54697,7 @@
         <v>44809</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -54754,7 +54754,7 @@
         <v>45264.38084490741</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -54811,7 +54811,7 @@
         <v>45702</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -54868,7 +54868,7 @@
         <v>44564</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -54925,7 +54925,7 @@
         <v>45219</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -54987,7 +54987,7 @@
         <v>44665</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -55044,7 +55044,7 @@
         <v>45211</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -55101,7 +55101,7 @@
         <v>45593.59681712963</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -55158,7 +55158,7 @@
         <v>45749</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -55215,7 +55215,7 @@
         <v>45453.36664351852</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -55277,7 +55277,7 @@
         <v>44445.55690972223</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -55339,7 +55339,7 @@
         <v>45777.42628472222</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -55401,7 +55401,7 @@
         <v>45777.41673611111</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -55463,7 +55463,7 @@
         <v>45733.60959490741</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -55520,7 +55520,7 @@
         <v>45777</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -55582,7 +55582,7 @@
         <v>45777.43878472222</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -55644,7 +55644,7 @@
         <v>45776.65518518518</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -55701,7 +55701,7 @@
         <v>45783.71833333333</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -55758,7 +55758,7 @@
         <v>45567.68003472222</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -55815,7 +55815,7 @@
         <v>45509.73383101852</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -55872,7 +55872,7 @@
         <v>45460.46358796296</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -55929,7 +55929,7 @@
         <v>45569.3533912037</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -55986,7 +55986,7 @@
         <v>45253</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -56048,7 +56048,7 @@
         <v>45203.45681712963</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -56105,7 +56105,7 @@
         <v>45785.4253125</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -56162,7 +56162,7 @@
         <v>45229.66430555555</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -56224,7 +56224,7 @@
         <v>45267.69052083333</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -56286,7 +56286,7 @@
         <v>45537.65305555556</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -56348,7 +56348,7 @@
         <v>45788.42467592593</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -56405,7 +56405,7 @@
         <v>45537.665</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -56467,7 +56467,7 @@
         <v>45104.34107638889</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -56529,7 +56529,7 @@
         <v>45786</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -56591,7 +56591,7 @@
         <v>45639.30934027778</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -56648,7 +56648,7 @@
         <v>45791.50862268519</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -56705,7 +56705,7 @@
         <v>45181</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -56767,7 +56767,7 @@
         <v>45418.66800925926</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -56824,7 +56824,7 @@
         <v>45618</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -56881,7 +56881,7 @@
         <v>45667</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -56943,7 +56943,7 @@
         <v>45440.5433912037</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -57000,7 +57000,7 @@
         <v>45793.61047453704</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -57062,7 +57062,7 @@
         <v>45793.62422453704</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -57124,7 +57124,7 @@
         <v>45456.90869212963</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -57186,7 +57186,7 @@
         <v>45795.71300925926</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -57243,7 +57243,7 @@
         <v>45795.70912037037</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -57300,7 +57300,7 @@
         <v>45155.5653125</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -57357,7 +57357,7 @@
         <v>45244</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -57414,7 +57414,7 @@
         <v>45796.44885416667</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -57476,7 +57476,7 @@
         <v>45794.33498842592</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -57533,7 +57533,7 @@
         <v>45796</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -57595,7 +57595,7 @@
         <v>45794.3419212963</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -57652,7 +57652,7 @@
         <v>45796</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -57714,7 +57714,7 @@
         <v>45796.45054398148</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -57776,7 +57776,7 @@
         <v>45795.71547453704</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -57833,7 +57833,7 @@
         <v>45456.48927083334</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>

--- a/Översikt LINDESBERG.xlsx
+++ b/Översikt LINDESBERG.xlsx
@@ -575,7 +575,7 @@
         <v>45615</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         <v>45252</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
         <v>45905.90649305555</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44850.83328703704</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>45967.61619212963</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>44375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45810.54824074074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45905.90519675926</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>44406</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45905.89554398148</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>45964.63199074074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>45568.63905092593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>45099</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>44320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>45888.67560185185</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>45138</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>44484</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>45888.67765046296</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         <v>45099</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>45905.90789351852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>45905.83755787037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>45218</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>45940.69754629629</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>45845.75751157408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>45616.38605324074</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>44472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>45138</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>45670</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>45905.88938657408</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>45952.35611111111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>45964.62771990741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>45964.40112268519</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>45980.01497685185</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>44280</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>45021</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>44789</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>45615</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>45546.28121527778</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44375</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>44512</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>44713.59363425926</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>44320</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>44679</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>45518</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>45575.54934027778</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>45645</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>45827.53077546296</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>44949</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>45922.49990740741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>45832.56153935185</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>45281</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>45645</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>45937.54982638889</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>45946.45171296296</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>45946.44423611111</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>45946.44790509259</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>45537.64484953704</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
         <v>45952.68596064814</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         <v>45953.69287037037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>44522</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         <v>45964.3965625</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>45881.42446759259</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         <v>45980.37108796297</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>45980.3659375</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>45618.58876157407</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>45698.46697916667</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>46038.45296296296</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>45478.39592592593</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>45614.68596064814</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>44536</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>45250</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>45104.3483912037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>45475.92849537037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>45614.68287037037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>45782.5300462963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>45783.66537037037</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
         <v>44260.30453703704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>44242</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
         <v>44295.61297453703</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         <v>44889.5746875</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7776,7 +7776,7 @@
         <v>44267</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         <v>44431.69783564815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>44853.61925925926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>44495.87667824074</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>44447.51184027778</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>44453</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>44484</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>44508</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>44445.4953587963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>44284.70511574074</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>44271</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>44327</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
         <v>44503</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>44462</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>44613</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>44386</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>44280</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>44427.75243055556</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8832,7 +8832,7 @@
         <v>44300</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8889,7 +8889,7 @@
         <v>44441.66886574074</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         <v>44431.69723379629</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>44332</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>44722.78552083333</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>44721.53951388889</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>44577.82805555555</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44862</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>44460</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>44481</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>44754</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>44714</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>44638</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44627</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>44790</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>44676</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>44377</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>44377.44943287037</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>44603</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>44630</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>44629</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>44862</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>44713.61145833333</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>44375</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10220,7 +10220,7 @@
         <v>44671</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>44706.65927083333</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>44260.31335648148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44468.34099537037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>44257</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44259</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44418.58454861111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44577.84596064815</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44273</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44546.67978009259</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>44671</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44375</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44326</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44325</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44505.36354166667</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44823.37396990741</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44378.55319444444</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>44522.87423611111</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>44635.51386574074</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>44357</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>44820</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>44434.74203703704</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44693.66775462963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>44484.56523148148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>44691</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44694.29309027778</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>44305</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>44505</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>44490</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44629</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44425.40128472223</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44665</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44459.57613425926</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44447</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44432.68241898148</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>44432</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12337,7 +12337,7 @@
         <v>44594</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>44326.7296412037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>44487.51556712963</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12508,7 +12508,7 @@
         <v>44463</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>44497</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12622,7 +12622,7 @@
         <v>44456</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>44819</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>44733.71126157408</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>44672</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44825.99293981482</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>44438.30614583333</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         <v>44449</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13031,7 +13031,7 @@
         <v>44622.69101851852</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>44875.47543981481</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44491</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44334.60293981482</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44526</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44389</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44446</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>44889.68100694445</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>44602</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>44389</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>44777</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>44665</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13715,7 +13715,7 @@
         <v>44451.78710648148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13772,7 +13772,7 @@
         <v>44502.49809027778</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13829,7 +13829,7 @@
         <v>44502</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13886,7 +13886,7 @@
         <v>44268.55900462963</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13943,7 +13943,7 @@
         <v>44481.34877314815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>44491</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>44784</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>44332.74105324074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>44384.56912037037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>44536</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>44453</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>44420.60616898148</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>44860</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>44451</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>44873.47148148148</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>44536</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>44267</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44376</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>44607.64115740741</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>44389</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>44539.31923611111</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>44539</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>44608</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44650.47945601852</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44479.58512731481</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>44618</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>44636.46935185185</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>44363</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>44511.39611111111</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>44490</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>44784.38697916667</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>45310</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>44698.62354166667</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
         <v>45736.30940972222</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15678,7 +15678,7 @@
         <v>45530</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>45518.71482638889</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>45289</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15849,7 +15849,7 @@
         <v>44445</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>45439.56605324074</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>44531.3575</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>45112.67952546296</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>44967.60165509259</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16139,7 +16139,7 @@
         <v>44389</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>45107</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16258,7 +16258,7 @@
         <v>44378.46403935185</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         <v>44683</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16372,7 +16372,7 @@
         <v>45532</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16429,7 +16429,7 @@
         <v>45604.58837962963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16486,7 +16486,7 @@
         <v>44974.55693287037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16543,7 +16543,7 @@
         <v>45404.55681712963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         <v>45030</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>45611.44960648148</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16724,7 +16724,7 @@
         <v>44943.73792824074</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16781,7 +16781,7 @@
         <v>45384.43418981481</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16838,7 +16838,7 @@
         <v>45646.63482638889</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>45158.41768518519</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>45755.68247685185</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>45054</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>45140</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>45580.73525462963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>45583</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>45751.50498842593</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         <v>45194</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17361,7 +17361,7 @@
         <v>45183.48666666666</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>44853.79818287037</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17475,7 +17475,7 @@
         <v>45568.64523148148</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17537,7 +17537,7 @@
         <v>45074</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17594,7 +17594,7 @@
         <v>45575.53690972222</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17656,7 +17656,7 @@
         <v>45575.56256944445</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         <v>45305</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17775,7 +17775,7 @@
         <v>45488.41480324074</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17832,7 +17832,7 @@
         <v>45075.44152777778</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>45310.87931712963</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>45344.6027662037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>45608</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>45330</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18127,7 +18127,7 @@
         <v>45610.7466087963</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>45243.62420138889</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18246,7 +18246,7 @@
         <v>45243</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>45749</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>45177.31795138889</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>45327</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18489,7 +18489,7 @@
         <v>45541.66916666667</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18551,7 +18551,7 @@
         <v>45749.42258101852</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18608,7 +18608,7 @@
         <v>44259</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>45097.38688657407</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18722,7 +18722,7 @@
         <v>45243</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18779,7 +18779,7 @@
         <v>45749.47251157407</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>44988</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18898,7 +18898,7 @@
         <v>45749.4737962963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>45272.57385416667</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>45497</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19069,7 +19069,7 @@
         <v>44803.64361111111</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>45369</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19183,7 +19183,7 @@
         <v>45461.62924768519</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>44378.46857638889</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>45077</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19364,7 +19364,7 @@
         <v>45162.5978125</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19421,7 +19421,7 @@
         <v>45744.57851851852</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19483,7 +19483,7 @@
         <v>45433.58099537037</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19540,7 +19540,7 @@
         <v>45691.36253472222</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19597,7 +19597,7 @@
         <v>45749</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19654,7 +19654,7 @@
         <v>44888.4577662037</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19711,7 +19711,7 @@
         <v>45729.60775462963</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>44928</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19825,7 +19825,7 @@
         <v>44902</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19882,7 +19882,7 @@
         <v>45590.37590277778</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19939,7 +19939,7 @@
         <v>45108.7553587963</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19996,7 +19996,7 @@
         <v>45803</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>45744.57673611111</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>45173.39315972223</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>45168.92155092592</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>45168.94197916667</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>45441.30899305556</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20353,7 +20353,7 @@
         <v>45441.30998842593</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>45804.45474537037</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>45804.67795138889</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>44979</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45887.56101851852</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>45804.45584490741</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20705,7 +20705,7 @@
         <v>45645.3712037037</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20767,7 +20767,7 @@
         <v>45889.67577546297</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>45889.66935185185</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20891,7 +20891,7 @@
         <v>45889.67290509259</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20953,7 +20953,7 @@
         <v>44300</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21010,7 +21010,7 @@
         <v>44480.58034722223</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21067,7 +21067,7 @@
         <v>45812.56952546296</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>45201</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21191,7 +21191,7 @@
         <v>45201.60283564815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>45329</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21315,7 +21315,7 @@
         <v>45518.71721064814</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21372,7 +21372,7 @@
         <v>45812.57143518519</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21434,7 +21434,7 @@
         <v>45812.57452546297</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>45812.57604166667</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21558,7 +21558,7 @@
         <v>45547.36590277778</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21615,7 +21615,7 @@
         <v>45048</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21672,7 +21672,7 @@
         <v>44574.50425925926</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>45895.4790625</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>45895.47704861111</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21853,7 +21853,7 @@
         <v>45895.48394675926</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>45895.49994212963</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21977,7 +21977,7 @@
         <v>45817.6455324074</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>45880</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>45610</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22148,7 +22148,7 @@
         <v>45895.48927083334</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>44551</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44675</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>45899.38057870371</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>45898.37138888889</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>45903.37475694445</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>45376.70292824074</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44865.600625</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>45820.61684027778</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>45902.3406712963</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>45821.37199074074</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22795,7 +22795,7 @@
         <v>45821.46135416667</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>45821.46486111111</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22919,7 +22919,7 @@
         <v>45821.44521990741</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>45103</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>44546.67222222222</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>45194</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>44908.49152777778</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>45471.40384259259</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         <v>45905.89143518519</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>45905.89236111111</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23390,7 +23390,7 @@
         <v>45707</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23447,7 +23447,7 @@
         <v>45471.52878472222</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>45905.89329861111</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23566,7 +23566,7 @@
         <v>45148</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23623,7 +23623,7 @@
         <v>45881.43759259259</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23680,7 +23680,7 @@
         <v>45152.34586805556</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23742,7 +23742,7 @@
         <v>45827.51862268519</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23804,7 +23804,7 @@
         <v>45826.52024305556</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23866,7 +23866,7 @@
         <v>45189.38135416667</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         <v>45912.63751157407</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23985,7 +23985,7 @@
         <v>45827.56939814815</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24047,7 +24047,7 @@
         <v>44577.81121527778</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24104,7 +24104,7 @@
         <v>45915.54983796296</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24161,7 +24161,7 @@
         <v>45915.49238425926</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24218,7 +24218,7 @@
         <v>45738.42981481482</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24275,7 +24275,7 @@
         <v>45912.63451388889</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24337,7 +24337,7 @@
         <v>45519.51627314815</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24399,7 +24399,7 @@
         <v>44900.36149305556</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24456,7 +24456,7 @@
         <v>45827.51753472222</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24518,7 +24518,7 @@
         <v>45827.51956018519</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24580,7 +24580,7 @@
         <v>45099</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24642,7 +24642,7 @@
         <v>44503</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24699,7 +24699,7 @@
         <v>45912.63359953704</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24761,7 +24761,7 @@
         <v>45915.54439814815</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24818,7 +24818,7 @@
         <v>45917.31780092593</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24880,7 +24880,7 @@
         <v>44553.35407407407</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24937,7 +24937,7 @@
         <v>45594.63747685185</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24994,7 +24994,7 @@
         <v>44951.5830324074</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25051,7 +25051,7 @@
         <v>45827.51628472222</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25113,7 +25113,7 @@
         <v>45373.34383101852</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>45523</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>45131</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>45078.82620370371</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         <v>45068</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25403,7 +25403,7 @@
         <v>45188</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25460,7 +25460,7 @@
         <v>45218</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25522,7 +25522,7 @@
         <v>45266.58394675926</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         <v>45170</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25641,7 +25641,7 @@
         <v>45227.31859953704</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25698,7 +25698,7 @@
         <v>45832.76100694444</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25760,7 +25760,7 @@
         <v>45832.76491898148</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>45925.56173611111</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25884,7 +25884,7 @@
         <v>45384</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25941,7 +25941,7 @@
         <v>45832.49325231482</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26003,7 +26003,7 @@
         <v>45832.51255787037</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>45832.55810185185</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26127,7 +26127,7 @@
         <v>45575.55273148148</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26189,7 +26189,7 @@
         <v>45575.5547337963</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26251,7 +26251,7 @@
         <v>45575.55684027778</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45832.72778935185</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26375,7 +26375,7 @@
         <v>45832.5902662037</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26437,7 +26437,7 @@
         <v>45832.74418981482</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26499,7 +26499,7 @@
         <v>45714</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26556,7 +26556,7 @@
         <v>45642</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         <v>45925.70290509259</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26675,7 +26675,7 @@
         <v>45832.49579861111</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26737,7 +26737,7 @@
         <v>45832.51028935185</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26799,7 +26799,7 @@
         <v>45091.39362268519</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26856,7 +26856,7 @@
         <v>45201</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26918,7 +26918,7 @@
         <v>45618.58962962963</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26980,7 +26980,7 @@
         <v>45538</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27042,7 +27042,7 @@
         <v>45257.48188657407</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27099,7 +27099,7 @@
         <v>44420</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27156,7 +27156,7 @@
         <v>45835.68443287037</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27213,7 +27213,7 @@
         <v>45265.64142361111</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27270,7 +27270,7 @@
         <v>45685</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27327,7 +27327,7 @@
         <v>45614.68083333333</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27384,7 +27384,7 @@
         <v>44431</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27441,7 +27441,7 @@
         <v>45119.46452546296</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27503,7 +27503,7 @@
         <v>45348</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27560,7 +27560,7 @@
         <v>45926.62039351852</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27617,7 +27617,7 @@
         <v>45729.65171296296</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27674,7 +27674,7 @@
         <v>45138</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27736,7 +27736,7 @@
         <v>45931.57967592592</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27793,7 +27793,7 @@
         <v>45931.57756944445</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27850,7 +27850,7 @@
         <v>45488.42258101852</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27907,7 +27907,7 @@
         <v>45316</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27964,7 +27964,7 @@
         <v>45393.3562962963</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>45393.36060185185</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28088,7 +28088,7 @@
         <v>45838.46456018519</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28150,7 +28150,7 @@
         <v>45838.46408564815</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28212,7 +28212,7 @@
         <v>45222</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         <v>45516.4221412037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28331,7 +28331,7 @@
         <v>45932.68006944445</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28388,7 +28388,7 @@
         <v>44949</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28445,7 +28445,7 @@
         <v>45936.68452546297</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28502,7 +28502,7 @@
         <v>45936.49210648148</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28564,7 +28564,7 @@
         <v>44895</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28621,7 +28621,7 @@
         <v>45936.37523148148</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28683,7 +28683,7 @@
         <v>45936.36637731481</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28745,7 +28745,7 @@
         <v>45936.49026620371</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28807,7 +28807,7 @@
         <v>45323</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28864,7 +28864,7 @@
         <v>45936.37237268518</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28926,7 +28926,7 @@
         <v>45106</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28983,7 +28983,7 @@
         <v>45937.4484837963</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29045,7 +29045,7 @@
         <v>45937.54697916667</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>45840</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>45937.56420138889</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>45937.56798611111</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29288,7 +29288,7 @@
         <v>44990</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29345,7 +29345,7 @@
         <v>45937.71556712963</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29402,7 +29402,7 @@
         <v>45937.92319444445</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29459,7 +29459,7 @@
         <v>45357.34521990741</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29521,7 +29521,7 @@
         <v>45813</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29578,7 +29578,7 @@
         <v>45937.58590277778</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29640,7 +29640,7 @@
         <v>45938.39741898148</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29697,7 +29697,7 @@
         <v>45554.71863425926</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29759,7 +29759,7 @@
         <v>45844.5775</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29821,7 +29821,7 @@
         <v>45939.67951388889</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29883,7 +29883,7 @@
         <v>45769.98449074074</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>45072.42776620371</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>45845.49216435185</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30059,7 +30059,7 @@
         <v>45940.69862268519</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30121,7 +30121,7 @@
         <v>45477.70315972222</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30178,7 +30178,7 @@
         <v>45940.69521990741</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30240,7 +30240,7 @@
         <v>45520.32887731482</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30302,7 +30302,7 @@
         <v>45404.68190972223</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30364,7 +30364,7 @@
         <v>45940.69643518519</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30426,7 +30426,7 @@
         <v>45940.70018518518</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30488,7 +30488,7 @@
         <v>45252.78021990741</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30545,7 +30545,7 @@
         <v>44577.83484953704</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30602,7 +30602,7 @@
         <v>45943.45966435185</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30659,7 +30659,7 @@
         <v>45943.47649305555</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30721,7 +30721,7 @@
         <v>45077</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30783,7 +30783,7 @@
         <v>45077</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30845,7 +30845,7 @@
         <v>45077</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         <v>45844.57328703703</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30969,7 +30969,7 @@
         <v>45844.57527777777</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>45943.4603125</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>45845.4855787037</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>45845.76005787037</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>45845.75200231482</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31264,7 +31264,7 @@
         <v>45454.49679398148</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31321,7 +31321,7 @@
         <v>44846</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31378,7 +31378,7 @@
         <v>45947.62353009259</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31435,7 +31435,7 @@
         <v>45719.52871527777</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>45947.60508101852</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>45946.68859953704</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>45618</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31683,7 +31683,7 @@
         <v>45946.44216435185</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31745,7 +31745,7 @@
         <v>45947.40105324074</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31807,7 +31807,7 @@
         <v>45946.69616898148</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31864,7 +31864,7 @@
         <v>44594.84091435185</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31921,7 +31921,7 @@
         <v>44728</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31978,7 +31978,7 @@
         <v>45694</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32035,7 +32035,7 @@
         <v>45645.3737962963</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>45670.69458333333</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>45537.64621527777</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32216,7 +32216,7 @@
         <v>45854</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32273,7 +32273,7 @@
         <v>45177.33091435185</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32335,7 +32335,7 @@
         <v>45574.65189814815</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32397,7 +32397,7 @@
         <v>45854</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32454,7 +32454,7 @@
         <v>45093.48221064815</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32511,7 +32511,7 @@
         <v>45860.3857175926</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32568,7 +32568,7 @@
         <v>45860.36222222223</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32625,7 +32625,7 @@
         <v>45587</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32682,7 +32682,7 @@
         <v>45952.68358796297</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32744,7 +32744,7 @@
         <v>45769.66260416667</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32801,7 +32801,7 @@
         <v>45265.49225694445</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32858,7 +32858,7 @@
         <v>45952.70765046297</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32915,7 +32915,7 @@
         <v>45952.68001157408</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32977,7 +32977,7 @@
         <v>45952.68439814815</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33039,7 +33039,7 @@
         <v>45344.623125</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33096,7 +33096,7 @@
         <v>44425.40297453704</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33158,7 +33158,7 @@
         <v>45534.54032407407</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33220,7 +33220,7 @@
         <v>45699.65424768518</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33277,7 +33277,7 @@
         <v>45952.68271990741</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33339,7 +33339,7 @@
         <v>45952.68524305556</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33401,7 +33401,7 @@
         <v>45546.46497685185</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33463,7 +33463,7 @@
         <v>45953.61387731481</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33520,7 +33520,7 @@
         <v>45831</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33577,7 +33577,7 @@
         <v>45575.65721064815</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33639,7 +33639,7 @@
         <v>44449</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33696,7 +33696,7 @@
         <v>45957.36386574074</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33758,7 +33758,7 @@
         <v>44522</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33815,7 +33815,7 @@
         <v>45831</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33872,7 +33872,7 @@
         <v>45870</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33929,7 +33929,7 @@
         <v>45343.58587962963</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         <v>45870</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34043,7 +34043,7 @@
         <v>45684.5790162037</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34100,7 +34100,7 @@
         <v>45134.68158564815</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34157,7 +34157,7 @@
         <v>45870</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34214,7 +34214,7 @@
         <v>45954.35075231481</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34276,7 +34276,7 @@
         <v>45954.35387731482</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34338,7 +34338,7 @@
         <v>45237.67819444444</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34395,7 +34395,7 @@
         <v>45729.76231481481</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34452,7 +34452,7 @@
         <v>45749</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34509,7 +34509,7 @@
         <v>45958.79287037037</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34566,7 +34566,7 @@
         <v>44978</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34623,7 +34623,7 @@
         <v>45958.55577546296</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34685,7 +34685,7 @@
         <v>45870</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34742,7 +34742,7 @@
         <v>44868.36924768519</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34804,7 +34804,7 @@
         <v>45645</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         <v>45667</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34923,7 +34923,7 @@
         <v>45530</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34980,7 +34980,7 @@
         <v>44865.87770833333</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35037,7 +35037,7 @@
         <v>44990</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35094,7 +35094,7 @@
         <v>45874.40503472222</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35156,7 +35156,7 @@
         <v>44946</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35213,7 +35213,7 @@
         <v>45400.6709837963</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35275,7 +35275,7 @@
         <v>45173</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35332,7 +35332,7 @@
         <v>45877.64431712963</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35394,7 +35394,7 @@
         <v>45877.63989583333</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35456,7 +35456,7 @@
         <v>45877.64144675926</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35518,7 +35518,7 @@
         <v>45877.64605324074</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35580,7 +35580,7 @@
         <v>45877.65075231482</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35642,7 +35642,7 @@
         <v>45877.64847222222</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35704,7 +35704,7 @@
         <v>44791</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35761,7 +35761,7 @@
         <v>44902</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35823,7 +35823,7 @@
         <v>45877.64776620371</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35885,7 +35885,7 @@
         <v>45876.59166666667</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35942,7 +35942,7 @@
         <v>45877.64230324074</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36004,7 +36004,7 @@
         <v>45960</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36061,7 +36061,7 @@
         <v>45960.62986111111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36118,7 +36118,7 @@
         <v>45881.42791666667</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36175,7 +36175,7 @@
         <v>45880</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36232,7 +36232,7 @@
         <v>45880.46056712963</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36289,7 +36289,7 @@
         <v>45399.56596064815</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36351,7 +36351,7 @@
         <v>45880.28673611111</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36408,7 +36408,7 @@
         <v>45964.64599537037</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36470,7 +36470,7 @@
         <v>45964.34680555556</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36527,7 +36527,7 @@
         <v>45099.27354166667</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36589,7 +36589,7 @@
         <v>45685</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36646,7 +36646,7 @@
         <v>44308</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36708,7 +36708,7 @@
         <v>45881.59550925926</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36765,7 +36765,7 @@
         <v>45964.3550925926</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36822,7 +36822,7 @@
         <v>45964.64709490741</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36884,7 +36884,7 @@
         <v>45964.64778935185</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         <v>45880.3172337963</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37003,7 +37003,7 @@
         <v>45964.62796296296</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37060,7 +37060,7 @@
         <v>45586.55451388889</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37117,7 +37117,7 @@
         <v>45097.39893518519</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37174,7 +37174,7 @@
         <v>45967.7096875</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37231,7 +37231,7 @@
         <v>45548</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37293,7 +37293,7 @@
         <v>45548</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37355,7 +37355,7 @@
         <v>45440</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37412,7 +37412,7 @@
         <v>45968.63695601852</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37474,7 +37474,7 @@
         <v>45328</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37536,7 +37536,7 @@
         <v>45646.63839120371</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37593,7 +37593,7 @@
         <v>45341.56577546296</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37655,7 +37655,7 @@
         <v>45971.56197916667</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37712,7 +37712,7 @@
         <v>45971.57659722222</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37769,7 +37769,7 @@
         <v>45565</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         <v>45714.31533564815</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37883,7 +37883,7 @@
         <v>44970</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37940,7 +37940,7 @@
         <v>45884</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37997,7 +37997,7 @@
         <v>45974.61217592593</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38059,7 +38059,7 @@
         <v>45974.61344907407</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38121,7 +38121,7 @@
         <v>45974.53239583333</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38178,7 +38178,7 @@
         <v>45229</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38235,7 +38235,7 @@
         <v>45974.51283564815</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38292,7 +38292,7 @@
         <v>45538.34460648148</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38354,7 +38354,7 @@
         <v>45884.38858796296</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38411,7 +38411,7 @@
         <v>44355</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38473,7 +38473,7 @@
         <v>45978.71075231482</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38530,7 +38530,7 @@
         <v>44511</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38587,7 +38587,7 @@
         <v>45203.510625</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38644,7 +38644,7 @@
         <v>45229.66262731481</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         <v>45979.81347222222</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38768,7 +38768,7 @@
         <v>45980.01226851852</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38830,7 +38830,7 @@
         <v>45979.81403935186</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38892,7 +38892,7 @@
         <v>45980.36866898148</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38954,7 +38954,7 @@
         <v>45980.36988425926</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39016,7 +39016,7 @@
         <v>45979.97458333334</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39078,7 +39078,7 @@
         <v>45980.00710648148</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39140,7 +39140,7 @@
         <v>45980.00753472222</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39202,7 +39202,7 @@
         <v>45980.0115625</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39264,7 +39264,7 @@
         <v>45980.01553240741</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39326,7 +39326,7 @@
         <v>45980.3716087963</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39388,7 +39388,7 @@
         <v>45980.36633101852</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39450,7 +39450,7 @@
         <v>45980.36679398148</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39512,7 +39512,7 @@
         <v>44602.45490740741</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39569,7 +39569,7 @@
         <v>45574.65087962963</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39631,7 +39631,7 @@
         <v>45982.71017361111</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39688,7 +39688,7 @@
         <v>45085</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39745,7 +39745,7 @@
         <v>45738.43714120371</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39802,7 +39802,7 @@
         <v>45229</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39859,7 +39859,7 @@
         <v>45565.40700231482</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39916,7 +39916,7 @@
         <v>45987.60012731481</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39973,7 +39973,7 @@
         <v>45538.34796296297</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40035,7 +40035,7 @@
         <v>45303</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40092,7 +40092,7 @@
         <v>45471.38995370371</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40149,7 +40149,7 @@
         <v>44734.64337962963</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40206,7 +40206,7 @@
         <v>44906.73321759259</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40263,7 +40263,7 @@
         <v>45047.7181712963</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40320,7 +40320,7 @@
         <v>44424.61709490741</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40377,7 +40377,7 @@
         <v>46030.44277777777</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -40434,7 +40434,7 @@
         <v>45568.62625</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40496,7 +40496,7 @@
         <v>44984</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40553,7 +40553,7 @@
         <v>45273</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40610,7 +40610,7 @@
         <v>46030.47725694445</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40667,7 +40667,7 @@
         <v>45394.51289351852</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40724,7 +40724,7 @@
         <v>44236</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40801,7 +40801,7 @@
         <v>45653.53664351852</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40858,7 +40858,7 @@
         <v>45139.64328703703</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40920,7 +40920,7 @@
         <v>45618.59219907408</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40982,7 +40982,7 @@
         <v>46034.65601851852</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41039,7 +41039,7 @@
         <v>46031</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41096,7 +41096,7 @@
         <v>45698</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41153,7 +41153,7 @@
         <v>45355.70009259259</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41210,7 +41210,7 @@
         <v>45702</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41267,7 +41267,7 @@
         <v>44979</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41324,7 +41324,7 @@
         <v>44319</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -41381,7 +41381,7 @@
         <v>46035</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -41438,7 +41438,7 @@
         <v>45995</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41495,7 +41495,7 @@
         <v>46037.69133101852</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41552,7 +41552,7 @@
         <v>45995</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41609,7 +41609,7 @@
         <v>44958.58982638889</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         <v>46038.55849537037</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41723,7 +41723,7 @@
         <v>46038.59640046296</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41780,7 +41780,7 @@
         <v>46041.54181712963</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41837,7 +41837,7 @@
         <v>46038.61912037037</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41894,7 +41894,7 @@
         <v>45043.40300925926</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41951,7 +41951,7 @@
         <v>45694</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42013,7 +42013,7 @@
         <v>45999.43730324074</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42070,7 +42070,7 @@
         <v>45751.5056712963</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42127,7 +42127,7 @@
         <v>45233.42121527778</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42189,7 +42189,7 @@
         <v>46038.49269675926</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42246,7 +42246,7 @@
         <v>44981</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42303,7 +42303,7 @@
         <v>45642.66184027777</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -42360,7 +42360,7 @@
         <v>46041.68443287037</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42417,7 +42417,7 @@
         <v>46038.61067129629</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42474,7 +42474,7 @@
         <v>46038.58241898148</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42531,7 +42531,7 @@
         <v>45538.34193287037</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42593,7 +42593,7 @@
         <v>45005.35967592592</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42650,7 +42650,7 @@
         <v>45005.47820601852</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42712,7 +42712,7 @@
         <v>45628.59233796296</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42769,7 +42769,7 @@
         <v>45404.55239583334</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42831,7 +42831,7 @@
         <v>45404.55601851852</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42893,7 +42893,7 @@
         <v>44546.6679050926</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42950,7 +42950,7 @@
         <v>45768.49947916667</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43007,7 +43007,7 @@
         <v>45194</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43064,7 +43064,7 @@
         <v>44721.52627314815</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43121,7 +43121,7 @@
         <v>44876.35706018518</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43183,7 +43183,7 @@
         <v>45057</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43240,7 +43240,7 @@
         <v>45145</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43302,7 +43302,7 @@
         <v>46043.38744212963</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -43359,7 +43359,7 @@
         <v>44410.61837962963</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43421,7 +43421,7 @@
         <v>46002.62465277778</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43478,7 +43478,7 @@
         <v>45166.68493055556</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43540,7 +43540,7 @@
         <v>46002.60324074074</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43597,7 +43597,7 @@
         <v>45338</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43654,7 +43654,7 @@
         <v>45635.63706018519</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43711,7 +43711,7 @@
         <v>44441.70047453704</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43768,7 +43768,7 @@
         <v>46002.61762731482</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43825,7 +43825,7 @@
         <v>45726.33763888889</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43882,7 +43882,7 @@
         <v>45726.34090277777</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43939,7 +43939,7 @@
         <v>45159.44525462963</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43996,7 +43996,7 @@
         <v>45103.53614583334</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44053,7 +44053,7 @@
         <v>45982</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44110,7 +44110,7 @@
         <v>45982</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44167,7 +44167,7 @@
         <v>45061.53414351852</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44224,7 +44224,7 @@
         <v>46007.3708449074</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44281,7 +44281,7 @@
         <v>46049.84017361111</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -44338,7 +44338,7 @@
         <v>46029</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -44395,7 +44395,7 @@
         <v>45279</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44452,7 +44452,7 @@
         <v>45523.31621527778</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44509,7 +44509,7 @@
         <v>44833</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44566,7 +44566,7 @@
         <v>45272.36168981482</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44623,7 +44623,7 @@
         <v>46006.60633101852</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44685,7 +44685,7 @@
         <v>44927.72487268518</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44742,7 +44742,7 @@
         <v>45737.3846412037</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         <v>45559</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         <v>45274</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44923,7 +44923,7 @@
         <v>46009.67175925926</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44980,7 +44980,7 @@
         <v>45149</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>46009</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45099,7 +45099,7 @@
         <v>46051.53563657407</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         <v>45523.58565972222</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>45766.33309027777</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>46008.25765046296</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -45327,7 +45327,7 @@
         <v>46051.53689814815</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -45384,7 +45384,7 @@
         <v>45007</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45446,7 +45446,7 @@
         <v>45600.60071759259</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45503,7 +45503,7 @@
         <v>45036</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45560,7 +45560,7 @@
         <v>46008.26085648148</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45617,7 +45617,7 @@
         <v>44258</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45674,7 +45674,7 @@
         <v>45741.64491898148</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45731,7 +45731,7 @@
         <v>44389</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45793,7 +45793,7 @@
         <v>45518.71048611111</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45855,7 +45855,7 @@
         <v>45518.71202546296</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45912,7 +45912,7 @@
         <v>45518.71591435185</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45969,7 +45969,7 @@
         <v>45548</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46031,7 +46031,7 @@
         <v>46013</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46088,7 +46088,7 @@
         <v>46052.46519675926</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46145,7 +46145,7 @@
         <v>46002</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46202,7 +46202,7 @@
         <v>46002</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46259,7 +46259,7 @@
         <v>46043</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -46316,7 +46316,7 @@
         <v>46044</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -46373,7 +46373,7 @@
         <v>45125.41458333333</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46430,7 +46430,7 @@
         <v>45113</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46487,7 +46487,7 @@
         <v>44841</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46544,7 +46544,7 @@
         <v>46056.49075231481</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46601,7 +46601,7 @@
         <v>46056.40149305556</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46658,7 +46658,7 @@
         <v>45061.52474537037</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46715,7 +46715,7 @@
         <v>46056.40425925926</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46772,7 +46772,7 @@
         <v>45170</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46834,7 +46834,7 @@
         <v>45562.61158564815</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46891,7 +46891,7 @@
         <v>44371.47609953704</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46948,7 +46948,7 @@
         <v>45474.65005787037</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47010,7 +47010,7 @@
         <v>45511.40297453704</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47067,7 +47067,7 @@
         <v>46057.60342592592</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47124,7 +47124,7 @@
         <v>44978</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -47181,7 +47181,7 @@
         <v>44963.37709490741</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -47238,7 +47238,7 @@
         <v>46038</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -47295,7 +47295,7 @@
         <v>44389</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -47357,7 +47357,7 @@
         <v>46058.35196759259</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -47414,7 +47414,7 @@
         <v>45373.30434027778</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -47476,7 +47476,7 @@
         <v>45005</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47533,7 +47533,7 @@
         <v>46058.52864583334</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47590,7 +47590,7 @@
         <v>46058.30956018518</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47647,7 +47647,7 @@
         <v>45034.5174537037</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47704,7 +47704,7 @@
         <v>46058.38300925926</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47761,7 +47761,7 @@
         <v>44909</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47818,7 +47818,7 @@
         <v>45582.57542824074</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47880,7 +47880,7 @@
         <v>44425</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47942,7 +47942,7 @@
         <v>45635.69581018519</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47999,7 +47999,7 @@
         <v>44740.66997685185</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -48056,7 +48056,7 @@
         <v>44431</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -48113,7 +48113,7 @@
         <v>45411.42858796296</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -48170,7 +48170,7 @@
         <v>45194</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -48227,7 +48227,7 @@
         <v>45615.69570601852</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -48284,7 +48284,7 @@
         <v>45628.58975694444</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -48341,7 +48341,7 @@
         <v>45707</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -48398,7 +48398,7 @@
         <v>45756.49009259259</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -48455,7 +48455,7 @@
         <v>45702</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -48512,7 +48512,7 @@
         <v>45575.55570601852</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -48574,7 +48574,7 @@
         <v>45218</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48636,7 +48636,7 @@
         <v>44457</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48693,7 +48693,7 @@
         <v>44301</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48755,7 +48755,7 @@
         <v>45590.39471064815</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48812,7 +48812,7 @@
         <v>45434.65854166666</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48869,7 +48869,7 @@
         <v>45082.31421296296</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48931,7 +48931,7 @@
         <v>45072</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48993,7 +48993,7 @@
         <v>45537.42240740741</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -49050,7 +49050,7 @@
         <v>45519.52319444445</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -49112,7 +49112,7 @@
         <v>45412.54541666667</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -49169,7 +49169,7 @@
         <v>45387.24732638889</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -49226,7 +49226,7 @@
         <v>45387.2521875</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -49283,7 +49283,7 @@
         <v>45554.7158912037</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -49345,7 +49345,7 @@
         <v>45141.76530092592</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -49402,7 +49402,7 @@
         <v>45400.66995370371</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -49464,7 +49464,7 @@
         <v>44389</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -49521,7 +49521,7 @@
         <v>44970.51849537037</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -49578,7 +49578,7 @@
         <v>45194</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49635,7 +49635,7 @@
         <v>45218.488125</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -49697,7 +49697,7 @@
         <v>44866.79668981482</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49754,7 +49754,7 @@
         <v>45538</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49811,7 +49811,7 @@
         <v>45586</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49873,7 +49873,7 @@
         <v>44621.85737268518</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49930,7 +49930,7 @@
         <v>45009.64217592592</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49987,7 +49987,7 @@
         <v>44566</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -50044,7 +50044,7 @@
         <v>45667</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -50101,7 +50101,7 @@
         <v>45667</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -50163,7 +50163,7 @@
         <v>45139.63480324074</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -50225,7 +50225,7 @@
         <v>45575.57104166667</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -50282,7 +50282,7 @@
         <v>44602.45162037037</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -50339,7 +50339,7 @@
         <v>45103</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -50396,7 +50396,7 @@
         <v>45511.39445601852</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -50453,7 +50453,7 @@
         <v>44735.62539351852</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -50515,7 +50515,7 @@
         <v>45111</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -50572,7 +50572,7 @@
         <v>44950</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -50629,7 +50629,7 @@
         <v>44883</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -50686,7 +50686,7 @@
         <v>45254.68105324074</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -50748,7 +50748,7 @@
         <v>45525.7374537037</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50805,7 +50805,7 @@
         <v>45177.33991898148</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50867,7 +50867,7 @@
         <v>45251</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50924,7 +50924,7 @@
         <v>45393.35787037037</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50986,7 +50986,7 @@
         <v>45762.61817129629</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -51043,7 +51043,7 @@
         <v>45107</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -51100,7 +51100,7 @@
         <v>44902</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -51157,7 +51157,7 @@
         <v>45744.32981481482</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -51214,7 +51214,7 @@
         <v>45519.52232638889</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -51276,7 +51276,7 @@
         <v>45107</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -51338,7 +51338,7 @@
         <v>44822</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -51395,7 +51395,7 @@
         <v>45274</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -51452,7 +51452,7 @@
         <v>45687</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -51509,7 +51509,7 @@
         <v>44438</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -51571,7 +51571,7 @@
         <v>45254</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -51633,7 +51633,7 @@
         <v>45736.308125</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -51690,7 +51690,7 @@
         <v>45095</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -51747,7 +51747,7 @@
         <v>45571.71736111111</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51809,7 +51809,7 @@
         <v>45575.56686342593</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51871,7 +51871,7 @@
         <v>45575.56820601852</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -51933,7 +51933,7 @@
         <v>44916</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51990,7 +51990,7 @@
         <v>45170.45921296296</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -52052,7 +52052,7 @@
         <v>45546.68743055555</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -52114,7 +52114,7 @@
         <v>45211</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -52176,7 +52176,7 @@
         <v>44544</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -52233,7 +52233,7 @@
         <v>44473.6343287037</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -52290,7 +52290,7 @@
         <v>44484</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -52347,7 +52347,7 @@
         <v>45471.42659722222</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -52404,7 +52404,7 @@
         <v>45471.52072916667</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -52461,7 +52461,7 @@
         <v>45698</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -52523,7 +52523,7 @@
         <v>45698</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -52585,7 +52585,7 @@
         <v>45189</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -52642,7 +52642,7 @@
         <v>45372.40246527778</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -52699,7 +52699,7 @@
         <v>45079</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -52761,7 +52761,7 @@
         <v>45079</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -52823,7 +52823,7 @@
         <v>45462</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52880,7 +52880,7 @@
         <v>45575.53331018519</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -52942,7 +52942,7 @@
         <v>45575.54489583334</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -53004,7 +53004,7 @@
         <v>45441.48670138889</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -53061,7 +53061,7 @@
         <v>44306.6371412037</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -53118,7 +53118,7 @@
         <v>45553</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -53180,7 +53180,7 @@
         <v>45646</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -53242,7 +53242,7 @@
         <v>45729.65061342593</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -53299,7 +53299,7 @@
         <v>45008</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -53361,7 +53361,7 @@
         <v>45113</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -53418,7 +53418,7 @@
         <v>45095</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -53475,7 +53475,7 @@
         <v>45377.48265046296</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -53532,7 +53532,7 @@
         <v>44342.39703703704</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -53594,7 +53594,7 @@
         <v>45664</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -53651,7 +53651,7 @@
         <v>45736</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -53708,7 +53708,7 @@
         <v>45274</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -53765,7 +53765,7 @@
         <v>45280</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -53827,7 +53827,7 @@
         <v>44267</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53884,7 +53884,7 @@
         <v>44890.46174768519</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -53941,7 +53941,7 @@
         <v>45334</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -53998,7 +53998,7 @@
         <v>45516.59447916667</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -54055,7 +54055,7 @@
         <v>44276</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -54112,7 +54112,7 @@
         <v>44753</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -54169,7 +54169,7 @@
         <v>45614.5968287037</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -54226,7 +54226,7 @@
         <v>45251.696875</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -54283,7 +54283,7 @@
         <v>45643</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -54340,7 +54340,7 @@
         <v>45749</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -54397,7 +54397,7 @@
         <v>45569.35209490741</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -54454,7 +54454,7 @@
         <v>45618.59456018519</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -54516,7 +54516,7 @@
         <v>45119</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -54578,7 +54578,7 @@
         <v>44946.54424768518</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -54635,7 +54635,7 @@
         <v>45618.58622685185</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -54697,7 +54697,7 @@
         <v>44809</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -54754,7 +54754,7 @@
         <v>45264.38084490741</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -54811,7 +54811,7 @@
         <v>45702</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -54868,7 +54868,7 @@
         <v>44564</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -54925,7 +54925,7 @@
         <v>45219</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -54987,7 +54987,7 @@
         <v>44665</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -55044,7 +55044,7 @@
         <v>45211</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -55101,7 +55101,7 @@
         <v>45593.59681712963</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -55158,7 +55158,7 @@
         <v>45749</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -55215,7 +55215,7 @@
         <v>45453.36664351852</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -55277,7 +55277,7 @@
         <v>44445.55690972223</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -55339,7 +55339,7 @@
         <v>45777.42628472222</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -55401,7 +55401,7 @@
         <v>45777.41673611111</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -55463,7 +55463,7 @@
         <v>45733.60959490741</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -55520,7 +55520,7 @@
         <v>45777</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -55582,7 +55582,7 @@
         <v>45777.43878472222</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -55644,7 +55644,7 @@
         <v>45776.65518518518</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -55701,7 +55701,7 @@
         <v>45783.71833333333</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -55758,7 +55758,7 @@
         <v>45567.68003472222</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -55815,7 +55815,7 @@
         <v>45509.73383101852</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -55872,7 +55872,7 @@
         <v>45460.46358796296</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -55929,7 +55929,7 @@
         <v>45569.3533912037</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -55986,7 +55986,7 @@
         <v>45253</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -56048,7 +56048,7 @@
         <v>45203.45681712963</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -56105,7 +56105,7 @@
         <v>45785.4253125</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -56162,7 +56162,7 @@
         <v>45229.66430555555</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -56224,7 +56224,7 @@
         <v>45267.69052083333</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -56286,7 +56286,7 @@
         <v>45537.65305555556</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -56348,7 +56348,7 @@
         <v>45788.42467592593</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -56405,7 +56405,7 @@
         <v>45537.665</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -56467,7 +56467,7 @@
         <v>45104.34107638889</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -56529,7 +56529,7 @@
         <v>45786</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -56591,7 +56591,7 @@
         <v>45639.30934027778</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -56648,7 +56648,7 @@
         <v>45791.50862268519</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -56705,7 +56705,7 @@
         <v>45181</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -56767,7 +56767,7 @@
         <v>45418.66800925926</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -56824,7 +56824,7 @@
         <v>45618</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -56881,7 +56881,7 @@
         <v>45667</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -56943,7 +56943,7 @@
         <v>45440.5433912037</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -57000,7 +57000,7 @@
         <v>45793.61047453704</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -57062,7 +57062,7 @@
         <v>45793.62422453704</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -57124,7 +57124,7 @@
         <v>45456.90869212963</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -57186,7 +57186,7 @@
         <v>45795.71300925926</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -57243,7 +57243,7 @@
         <v>45795.70912037037</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -57300,7 +57300,7 @@
         <v>45155.5653125</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -57357,7 +57357,7 @@
         <v>45244</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -57414,7 +57414,7 @@
         <v>45796.44885416667</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -57476,7 +57476,7 @@
         <v>45794.33498842592</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -57533,7 +57533,7 @@
         <v>45796</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -57595,7 +57595,7 @@
         <v>45794.3419212963</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -57652,7 +57652,7 @@
         <v>45796</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -57714,7 +57714,7 @@
         <v>45796.45054398148</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -57776,7 +57776,7 @@
         <v>45795.71547453704</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -57833,7 +57833,7 @@
         <v>45456.48927083334</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>

--- a/Översikt LINDESBERG.xlsx
+++ b/Översikt LINDESBERG.xlsx
@@ -575,7 +575,7 @@
         <v>45615</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         <v>45252</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
         <v>45905.90649305555</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44850.83328703704</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>45967.61619212963</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>44375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45810.54824074074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45905.90519675926</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>44406</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45905.89554398148</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>45964.63199074074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>45568.63905092593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>45099</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>44320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>45888.67560185185</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>45138</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>44484</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>45888.67765046296</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         <v>45099</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>45218</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>45905.90789351852</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>45905.83755787037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>45845.75751157408</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>45940.69754629629</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>45616.38605324074</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>44472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>45138</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>45670</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>45905.88938657408</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>45952.35611111111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>45964.62771990741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>45964.40112268519</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>45980.01497685185</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>44280</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>45021</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>44789</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>46064.41263888889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>45615</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>45546.28121527778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44375</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44512</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>44713.59363425926</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>44320</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>44679</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         <v>45518</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>45575.54934027778</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>45645</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>44949</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>45832.56153935185</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>45827.53077546296</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>45281</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5326,7 +5326,7 @@
         <v>45645</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>45537.64484953704</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>45922.49990740741</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>45881.42446759259</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>45937.54982638889</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>44522</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>45946.45171296296</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>45946.44423611111</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>45946.44790509259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>45952.68596064814</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>45953.69287037037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>45964.3965625</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>45980.37108796297</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6481,7 +6481,7 @@
         <v>45980.3659375</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>45618.58876157407</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>45698.46697916667</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>46038.45296296296</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6840,7 +6840,7 @@
         <v>45478.39592592593</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>45411.42858796296</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>45614.68596064814</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>46064.42189814815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>46064</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>46064.4325</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         <v>46064</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>46064.43017361111</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>44536</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>45250</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>45104.3483912037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>45475.92849537037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>45614.68287037037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>45782.5300462963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>45783.66537037037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>44260.30453703704</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>44295.61297453703</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>44889.5746875</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>44267</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>44431.69783564815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>44853.61925925926</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44495.87667824074</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44447.51184027778</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>44453</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>44445.4953587963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>44484</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44508</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44284.70511574074</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44271</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44327</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>44503</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>44386</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>44462</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>44613</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>44280</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>44427.75243055556</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>44300</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>44431.69723379629</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>44441.66886574074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>44332</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>44721.53951388889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>44722.78552083333</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44862</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44577.82805555555</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>44460</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>44481</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>44754</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>44714</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>44627</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>44638</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>44790</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>44676</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>44377</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>44377.44943287037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>44603</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>44630</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>44862</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10591,7 +10591,7 @@
         <v>44713.61145833333</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>44629</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>44375</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>44671</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>44706.65927083333</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44468.34099537037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>44260.31335648148</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11005,7 +11005,7 @@
         <v>44257</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11067,7 +11067,7 @@
         <v>44418.58454861111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11124,7 +11124,7 @@
         <v>44259</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>44577.84596064815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11238,7 +11238,7 @@
         <v>44273</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>44505.36354166667</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11352,7 +11352,7 @@
         <v>44671</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11409,7 +11409,7 @@
         <v>44546.67978009259</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11466,7 +11466,7 @@
         <v>44375</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11523,7 +11523,7 @@
         <v>44326</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11580,7 +11580,7 @@
         <v>44325</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         <v>44823.37396990741</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11694,7 +11694,7 @@
         <v>44378.55319444444</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11756,7 +11756,7 @@
         <v>44522.87423611111</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11813,7 +11813,7 @@
         <v>44635.51386574074</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11870,7 +11870,7 @@
         <v>44357</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11927,7 +11927,7 @@
         <v>44820</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11984,7 +11984,7 @@
         <v>44434.74203703704</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12041,7 +12041,7 @@
         <v>44484.56523148148</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12098,7 +12098,7 @@
         <v>44691</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12155,7 +12155,7 @@
         <v>44305</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12212,7 +12212,7 @@
         <v>44694.29309027778</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>44505</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         <v>44490</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>44629</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12445,7 +12445,7 @@
         <v>44693.66775462963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         <v>44425.40128472223</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12569,7 +12569,7 @@
         <v>44665</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         <v>44459.57613425926</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>44447</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12740,7 +12740,7 @@
         <v>44432.68241898148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12802,7 +12802,7 @@
         <v>44432</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>44594</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12941,7 +12941,7 @@
         <v>44326.7296412037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44487.51556712963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44463</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44497</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>44456</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44819</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44733.71126157408</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>44672</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>44825.99293981482</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44438.30614583333</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44449</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44622.69101851852</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44875.47543981481</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44334.60293981482</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44491</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44526</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44389</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44446</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44889.68100694445</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44602</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44389</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>44777</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>44451.78710648148</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>44665</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>44502.49809027778</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>44502</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44268.55900462963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44491</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44481.34877314815</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44784</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         <v>44332.74105324074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>44384.56912037037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14775,7 +14775,7 @@
         <v>44453</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14832,7 +14832,7 @@
         <v>44420.60616898148</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>44536</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>44860</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>44451</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>44873.47148148148</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>44536</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>44267</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>44376</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>44607.64115740741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>44608</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44389</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>44539.31923611111</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>44539</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44650.47945601852</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44479.58512731481</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44618</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44636.46935185185</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44363</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>44511.39611111111</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>44490</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>44784.38697916667</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>44698.62354166667</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16111,7 +16111,7 @@
         <v>45310</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16168,7 +16168,7 @@
         <v>45736.30940972222</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>45530</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>45289</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>45518.71482638889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>44531.3575</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>44445</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>45439.56605324074</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>44967.60165509259</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>44389</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16691,7 +16691,7 @@
         <v>45532</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16748,7 +16748,7 @@
         <v>45112.67952546296</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16805,7 +16805,7 @@
         <v>45107</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16862,7 +16862,7 @@
         <v>44378.46403935185</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16919,7 +16919,7 @@
         <v>44974.55693287037</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16976,7 +16976,7 @@
         <v>45030</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         <v>45404.55681712963</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>44683</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
         <v>45611.44960648148</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>45604.58837962963</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>45384.43418981481</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17328,7 +17328,7 @@
         <v>45646.63482638889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17385,7 +17385,7 @@
         <v>45755.68247685185</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17442,7 +17442,7 @@
         <v>44943.73792824074</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17499,7 +17499,7 @@
         <v>45140</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17556,7 +17556,7 @@
         <v>45054</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>45751.50498842593</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17670,7 +17670,7 @@
         <v>45158.41768518519</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17727,7 +17727,7 @@
         <v>45580.73525462963</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>45583</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>45183.48666666666</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17908,7 +17908,7 @@
         <v>45194</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44853.79818287037</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>45568.64523148148</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18084,7 +18084,7 @@
         <v>45074</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18141,7 +18141,7 @@
         <v>45575.53690972222</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>45575.56256944445</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>45488.41480324074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>45075.44152777778</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>45305</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>45310.87931712963</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>45344.6027662037</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>45608</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18617,7 +18617,7 @@
         <v>45610.7466087963</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18674,7 +18674,7 @@
         <v>45243.62420138889</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18736,7 +18736,7 @@
         <v>45243</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18798,7 +18798,7 @@
         <v>45749</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18855,7 +18855,7 @@
         <v>45177.31795138889</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>45330</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>45097.38688657407</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>45541.66916666667</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19093,7 +19093,7 @@
         <v>44259</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19150,7 +19150,7 @@
         <v>45243</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>45749.47251157407</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>45272.57385416667</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>44988</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19383,7 +19383,7 @@
         <v>45749.4737962963</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>45497</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19497,7 +19497,7 @@
         <v>44803.64361111111</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>45369</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19611,7 +19611,7 @@
         <v>45077</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>45162.5978125</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19730,7 +19730,7 @@
         <v>45744.57851851852</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>45691.36253472222</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>45433.58099537037</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>45461.62924768519</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>45327</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>45749</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>44378.46857638889</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>44888.4577662037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>45744.57673611111</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>45108.7553587963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>44928</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>45749.42258101852</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>44902</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>45173.39315972223</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44979</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>45168.92155092592</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>45168.94197916667</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>45441.30899305556</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45441.30998842593</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20843,7 +20843,7 @@
         <v>44300</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20900,7 +20900,7 @@
         <v>45645.3712037037</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20962,7 +20962,7 @@
         <v>44480.58034722223</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21019,7 +21019,7 @@
         <v>45547.36590277778</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21076,7 +21076,7 @@
         <v>45048</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21133,7 +21133,7 @@
         <v>44574.50425925926</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>45201</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>45201.60283564815</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>45329</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>45518.71721064814</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>45610</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44551</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>44675</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>45887.56101851852</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>45820.61684027778</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>45821.37199074074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>45821.46135416667</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>45821.46486111111</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21914,7 +21914,7 @@
         <v>45821.44521990741</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>45889.67577546297</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
         <v>45889.66935185185</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>45376.70292824074</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44865.600625</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>45889.67290509259</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22276,7 +22276,7 @@
         <v>45827.51862268519</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22338,7 +22338,7 @@
         <v>45103</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22395,7 +22395,7 @@
         <v>45826.52024305556</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22457,7 +22457,7 @@
         <v>44546.67222222222</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22514,7 +22514,7 @@
         <v>45827.56939814815</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>45194</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44908.49152777778</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22690,7 +22690,7 @@
         <v>45471.40384259259</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22747,7 +22747,7 @@
         <v>45827.51753472222</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>45827.51956018519</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>45707</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>45895.4790625</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>45895.47704861111</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23052,7 +23052,7 @@
         <v>45895.48394675926</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23114,7 +23114,7 @@
         <v>45827.51628472222</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         <v>45895.49994212963</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>45471.52878472222</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>45523</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23352,7 +23352,7 @@
         <v>45148</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23409,7 +23409,7 @@
         <v>45895.48927083334</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23471,7 +23471,7 @@
         <v>45152.34586805556</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>45189.38135416667</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>45832.76100694444</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>45832.76491898148</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23714,7 +23714,7 @@
         <v>44577.81121527778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23771,7 +23771,7 @@
         <v>45832.49325231482</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
         <v>45832.51255787037</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23895,7 +23895,7 @@
         <v>45832.55810185185</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23957,7 +23957,7 @@
         <v>45738.42981481482</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24014,7 +24014,7 @@
         <v>45832.72778935185</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         <v>45519.51627314815</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24138,7 +24138,7 @@
         <v>45832.5902662037</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24200,7 +24200,7 @@
         <v>44900.36149305556</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24257,7 +24257,7 @@
         <v>45899.38057870371</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24314,7 +24314,7 @@
         <v>45832.74418981482</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>45898.37138888889</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         <v>45099</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>45832.49579861111</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24557,7 +24557,7 @@
         <v>45832.51028935185</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>44503</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>44553.35407407407</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>45594.63747685185</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>45835.68443287037</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>44951.5830324074</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>45373.34383101852</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>45903.37475694445</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25028,7 +25028,7 @@
         <v>45131</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>45078.82620370371</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25142,7 +25142,7 @@
         <v>45902.3406712963</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25199,7 +25199,7 @@
         <v>45068</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>45188</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>45218</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25375,7 +25375,7 @@
         <v>45266.58394675926</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25432,7 +25432,7 @@
         <v>45170</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>45227.31859953704</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25551,7 +25551,7 @@
         <v>45905.89143518519</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>45905.89236111111</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25675,7 +25675,7 @@
         <v>45838.46456018519</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25737,7 +25737,7 @@
         <v>45838.46408564815</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>45384</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25856,7 +25856,7 @@
         <v>45516.4221412037</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>45575.55273148148</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25980,7 +25980,7 @@
         <v>45575.5547337963</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26042,7 +26042,7 @@
         <v>45575.55684027778</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26104,7 +26104,7 @@
         <v>45905.89329861111</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>45840</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>45881.43759259259</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>45714</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26337,7 +26337,7 @@
         <v>45642</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26394,7 +26394,7 @@
         <v>45844.5775</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>45845.49216435185</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26513,7 +26513,7 @@
         <v>45091.39362268519</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26570,7 +26570,7 @@
         <v>45201</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26632,7 +26632,7 @@
         <v>45618.58962962963</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26694,7 +26694,7 @@
         <v>45538</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26756,7 +26756,7 @@
         <v>45520.32887731482</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26818,7 +26818,7 @@
         <v>45257.48188657407</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         <v>44420</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26932,7 +26932,7 @@
         <v>45265.64142361111</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26989,7 +26989,7 @@
         <v>45912.63751157407</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27051,7 +27051,7 @@
         <v>45685</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27108,7 +27108,7 @@
         <v>45614.68083333333</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27165,7 +27165,7 @@
         <v>45844.57328703703</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>45844.57527777777</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27289,7 +27289,7 @@
         <v>45845.4855787037</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         <v>45915.54983796296</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27403,7 +27403,7 @@
         <v>44431</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27460,7 +27460,7 @@
         <v>45915.49238425926</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27517,7 +27517,7 @@
         <v>45912.63451388889</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27579,7 +27579,7 @@
         <v>45119.46452546296</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>45845.76005787037</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27698,7 +27698,7 @@
         <v>45845.75200231482</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27755,7 +27755,7 @@
         <v>45348</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>45912.63359953704</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>45915.54439814815</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27931,7 +27931,7 @@
         <v>45729.65171296296</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27988,7 +27988,7 @@
         <v>45917.31780092593</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28050,7 +28050,7 @@
         <v>45138</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28112,7 +28112,7 @@
         <v>45488.42258101852</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28169,7 +28169,7 @@
         <v>45316</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         <v>44728</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28283,7 +28283,7 @@
         <v>45694</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28340,7 +28340,7 @@
         <v>45393.3562962963</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28402,7 +28402,7 @@
         <v>45393.36060185185</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28464,7 +28464,7 @@
         <v>45670.69458333333</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28521,7 +28521,7 @@
         <v>45537.64621527777</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28583,7 +28583,7 @@
         <v>45854</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28640,7 +28640,7 @@
         <v>45854</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28697,7 +28697,7 @@
         <v>45222</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28754,7 +28754,7 @@
         <v>45860.3857175926</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28811,7 +28811,7 @@
         <v>44949</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28868,7 +28868,7 @@
         <v>45860.36222222223</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28925,7 +28925,7 @@
         <v>44895</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28982,7 +28982,7 @@
         <v>45587</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29039,7 +29039,7 @@
         <v>45925.56173611111</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29101,7 +29101,7 @@
         <v>45323</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29158,7 +29158,7 @@
         <v>45106</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29215,7 +29215,7 @@
         <v>44990</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29272,7 +29272,7 @@
         <v>45534.54032407407</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29334,7 +29334,7 @@
         <v>45925.70290509259</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>45357.34521990741</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29458,7 +29458,7 @@
         <v>45831</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29515,7 +29515,7 @@
         <v>45575.65721064815</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>45554.71863425926</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29639,7 +29639,7 @@
         <v>45831</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29696,7 +29696,7 @@
         <v>45769.98449074074</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29753,7 +29753,7 @@
         <v>45870</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29810,7 +29810,7 @@
         <v>45870</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29867,7 +29867,7 @@
         <v>45072.42776620371</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29929,7 +29929,7 @@
         <v>45870</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         <v>45477.70315972222</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         <v>45926.62039351852</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30100,7 +30100,7 @@
         <v>45404.68190972223</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30162,7 +30162,7 @@
         <v>45870</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30219,7 +30219,7 @@
         <v>45931.57967592592</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30276,7 +30276,7 @@
         <v>45252.78021990741</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30333,7 +30333,7 @@
         <v>44577.83484953704</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30390,7 +30390,7 @@
         <v>45931.57756944445</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30447,7 +30447,7 @@
         <v>45077</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30509,7 +30509,7 @@
         <v>45077</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30571,7 +30571,7 @@
         <v>45077</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30633,7 +30633,7 @@
         <v>45874.40503472222</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30695,7 +30695,7 @@
         <v>45877.64431712963</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30757,7 +30757,7 @@
         <v>45877.63989583333</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30819,7 +30819,7 @@
         <v>45877.64144675926</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30881,7 +30881,7 @@
         <v>45877.64605324074</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30943,7 +30943,7 @@
         <v>45877.65075231482</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31005,7 +31005,7 @@
         <v>45877.64847222222</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31067,7 +31067,7 @@
         <v>45454.49679398148</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31124,7 +31124,7 @@
         <v>44846</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31181,7 +31181,7 @@
         <v>45877.64776620371</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31243,7 +31243,7 @@
         <v>45876.59166666667</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31300,7 +31300,7 @@
         <v>45719.52871527777</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31362,7 +31362,7 @@
         <v>45877.64230324074</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31424,7 +31424,7 @@
         <v>45618</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31486,7 +31486,7 @@
         <v>45881.42791666667</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31543,7 +31543,7 @@
         <v>45880</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31600,7 +31600,7 @@
         <v>45880.46056712963</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31657,7 +31657,7 @@
         <v>44594.84091435185</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31714,7 +31714,7 @@
         <v>45880.28673611111</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         <v>45932.68006944445</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31828,7 +31828,7 @@
         <v>45645.3737962963</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31890,7 +31890,7 @@
         <v>45881.59550925926</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31947,7 +31947,7 @@
         <v>45936.68452546297</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32004,7 +32004,7 @@
         <v>45936.49210648148</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         <v>45880.3172337963</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32123,7 +32123,7 @@
         <v>45936.37523148148</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32185,7 +32185,7 @@
         <v>45177.33091435185</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>45574.65189814815</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32309,7 +32309,7 @@
         <v>45936.36637731481</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32371,7 +32371,7 @@
         <v>45936.49026620371</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32433,7 +32433,7 @@
         <v>45936.37237268518</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>45093.48221064815</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>45937.4484837963</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32614,7 +32614,7 @@
         <v>45937.54697916667</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32676,7 +32676,7 @@
         <v>45937.56420138889</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32738,7 +32738,7 @@
         <v>45937.56798611111</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32800,7 +32800,7 @@
         <v>45937.71556712963</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32857,7 +32857,7 @@
         <v>45937.92319444445</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32914,7 +32914,7 @@
         <v>45769.66260416667</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
         <v>45813</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33028,7 +33028,7 @@
         <v>45265.49225694445</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33085,7 +33085,7 @@
         <v>45937.58590277778</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33147,7 +33147,7 @@
         <v>45344.623125</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33204,7 +33204,7 @@
         <v>45938.39741898148</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33261,7 +33261,7 @@
         <v>44425.40297453704</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33323,7 +33323,7 @@
         <v>45699.65424768518</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33380,7 +33380,7 @@
         <v>45939.67951388889</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33442,7 +33442,7 @@
         <v>45546.46497685185</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33504,7 +33504,7 @@
         <v>45940.69862268519</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33566,7 +33566,7 @@
         <v>44449</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33623,7 +33623,7 @@
         <v>45884</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33680,7 +33680,7 @@
         <v>44522</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33737,7 +33737,7 @@
         <v>45343.58587962963</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33794,7 +33794,7 @@
         <v>45940.69521990741</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33856,7 +33856,7 @@
         <v>45684.5790162037</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33913,7 +33913,7 @@
         <v>45134.68158564815</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33970,7 +33970,7 @@
         <v>45940.69643518519</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34032,7 +34032,7 @@
         <v>45940.70018518518</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34094,7 +34094,7 @@
         <v>45943.45966435185</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34151,7 +34151,7 @@
         <v>45943.47649305555</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34213,7 +34213,7 @@
         <v>45943.4603125</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34275,7 +34275,7 @@
         <v>45237.67819444444</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34332,7 +34332,7 @@
         <v>45729.76231481481</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34389,7 +34389,7 @@
         <v>45749</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34446,7 +34446,7 @@
         <v>44978</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34503,7 +34503,7 @@
         <v>44868.36924768519</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34565,7 +34565,7 @@
         <v>45645</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34627,7 +34627,7 @@
         <v>45667</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34684,7 +34684,7 @@
         <v>45884.38858796296</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34741,7 +34741,7 @@
         <v>45947.62353009259</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34798,7 +34798,7 @@
         <v>45530</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34855,7 +34855,7 @@
         <v>44865.87770833333</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34912,7 +34912,7 @@
         <v>44990</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34969,7 +34969,7 @@
         <v>45947.60508101852</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35031,7 +35031,7 @@
         <v>44946</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35088,7 +35088,7 @@
         <v>45946.68859953704</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35150,7 +35150,7 @@
         <v>45946.44216435185</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35212,7 +35212,7 @@
         <v>45400.6709837963</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35274,7 +35274,7 @@
         <v>45173</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35331,7 +35331,7 @@
         <v>45947.40105324074</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35393,7 +35393,7 @@
         <v>45946.69616898148</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35450,7 +35450,7 @@
         <v>44791</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35507,7 +35507,7 @@
         <v>44902</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35569,7 +35569,7 @@
         <v>45952.68358796297</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35631,7 +35631,7 @@
         <v>45399.56596064815</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35693,7 +35693,7 @@
         <v>45952.70765046297</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35750,7 +35750,7 @@
         <v>45952.68001157408</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35812,7 +35812,7 @@
         <v>45952.68439814815</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35874,7 +35874,7 @@
         <v>45099.27354166667</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35936,7 +35936,7 @@
         <v>45685</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35993,7 +35993,7 @@
         <v>44308</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36055,7 +36055,7 @@
         <v>45952.68271990741</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36117,7 +36117,7 @@
         <v>45952.68524305556</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36179,7 +36179,7 @@
         <v>45586.55451388889</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36236,7 +36236,7 @@
         <v>45953.61387731481</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36293,7 +36293,7 @@
         <v>45957.36386574074</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36355,7 +36355,7 @@
         <v>45097.39893518519</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36412,7 +36412,7 @@
         <v>45548</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36474,7 +36474,7 @@
         <v>45548</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>45954.35075231481</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36598,7 +36598,7 @@
         <v>45954.35387731482</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36660,7 +36660,7 @@
         <v>45440</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36717,7 +36717,7 @@
         <v>45958.79287037037</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36774,7 +36774,7 @@
         <v>45328</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36836,7 +36836,7 @@
         <v>45958.55577546296</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36898,7 +36898,7 @@
         <v>45646.63839120371</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         <v>45341.56577546296</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37017,7 +37017,7 @@
         <v>45565</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37074,7 +37074,7 @@
         <v>45714.31533564815</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37131,7 +37131,7 @@
         <v>45960</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37188,7 +37188,7 @@
         <v>45960.62986111111</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37245,7 +37245,7 @@
         <v>44970</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37302,7 +37302,7 @@
         <v>45229</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37359,7 +37359,7 @@
         <v>45964.64599537037</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37421,7 +37421,7 @@
         <v>45964.34680555556</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37478,7 +37478,7 @@
         <v>45538.34460648148</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37540,7 +37540,7 @@
         <v>45964.3550925926</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37597,7 +37597,7 @@
         <v>45964.64709490741</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37659,7 +37659,7 @@
         <v>45964.64778935185</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37721,7 +37721,7 @@
         <v>45964.62796296296</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37778,7 +37778,7 @@
         <v>44355</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37840,7 +37840,7 @@
         <v>44511</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37897,7 +37897,7 @@
         <v>45203.510625</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37954,7 +37954,7 @@
         <v>45229.66262731481</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38016,7 +38016,7 @@
         <v>45967.7096875</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38073,7 +38073,7 @@
         <v>44602.45490740741</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38130,7 +38130,7 @@
         <v>45968.63695601852</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38192,7 +38192,7 @@
         <v>45574.65087962963</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38254,7 +38254,7 @@
         <v>45085</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38311,7 +38311,7 @@
         <v>45971.56197916667</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38368,7 +38368,7 @@
         <v>45971.57659722222</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38425,7 +38425,7 @@
         <v>45738.43714120371</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38482,7 +38482,7 @@
         <v>45974.61217592593</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38544,7 +38544,7 @@
         <v>45229</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38601,7 +38601,7 @@
         <v>45974.61344907407</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38663,7 +38663,7 @@
         <v>45974.53239583333</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38720,7 +38720,7 @@
         <v>45565.40700231482</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38777,7 +38777,7 @@
         <v>45538.34796296297</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38839,7 +38839,7 @@
         <v>45974.51283564815</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38896,7 +38896,7 @@
         <v>45303</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38953,7 +38953,7 @@
         <v>45471.38995370371</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39010,7 +39010,7 @@
         <v>45978.71075231482</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39067,7 +39067,7 @@
         <v>44734.64337962963</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -39124,7 +39124,7 @@
         <v>44906.73321759259</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39181,7 +39181,7 @@
         <v>45047.7181712963</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39238,7 +39238,7 @@
         <v>44424.61709490741</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39295,7 +39295,7 @@
         <v>45979.81347222222</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39357,7 +39357,7 @@
         <v>45980.01226851852</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39419,7 +39419,7 @@
         <v>45979.81403935186</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39481,7 +39481,7 @@
         <v>45980.36866898148</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39543,7 +39543,7 @@
         <v>45980.36988425926</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39605,7 +39605,7 @@
         <v>45568.62625</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39667,7 +39667,7 @@
         <v>45979.97458333334</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39729,7 +39729,7 @@
         <v>45980.00710648148</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>45980.00753472222</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39853,7 +39853,7 @@
         <v>45980.0115625</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39915,7 +39915,7 @@
         <v>45980.01553240741</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39977,7 +39977,7 @@
         <v>45980.3716087963</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -40039,7 +40039,7 @@
         <v>45980.36633101852</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -40101,7 +40101,7 @@
         <v>44984</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -40158,7 +40158,7 @@
         <v>45980.36679398148</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40220,7 +40220,7 @@
         <v>45273</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40277,7 +40277,7 @@
         <v>45982.71017361111</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40334,7 +40334,7 @@
         <v>45394.51289351852</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40391,7 +40391,7 @@
         <v>45653.53664351852</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40448,7 +40448,7 @@
         <v>45139.64328703703</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40510,7 +40510,7 @@
         <v>45618.59219907408</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40572,7 +40572,7 @@
         <v>45987.60012731481</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -40629,7 +40629,7 @@
         <v>45698</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40686,7 +40686,7 @@
         <v>45355.70009259259</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40743,7 +40743,7 @@
         <v>45702</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40800,7 +40800,7 @@
         <v>44979</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40857,7 +40857,7 @@
         <v>44319</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40914,7 +40914,7 @@
         <v>46034.65601851852</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40971,7 +40971,7 @@
         <v>44958.58982638889</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -41028,7 +41028,7 @@
         <v>45043.40300925926</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -41085,7 +41085,7 @@
         <v>45694</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -41147,7 +41147,7 @@
         <v>45751.5056712963</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41204,7 +41204,7 @@
         <v>45233.42121527778</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         <v>46035</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41323,7 +41323,7 @@
         <v>45995</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41380,7 +41380,7 @@
         <v>46037.69133101852</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41437,7 +41437,7 @@
         <v>44981</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41494,7 +41494,7 @@
         <v>45642.66184027777</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -41551,7 +41551,7 @@
         <v>45995</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -41608,7 +41608,7 @@
         <v>46038.55849537037</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41665,7 +41665,7 @@
         <v>46038.59640046296</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41722,7 +41722,7 @@
         <v>46041.54181712963</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41779,7 +41779,7 @@
         <v>46038.61912037037</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41836,7 +41836,7 @@
         <v>45999.43730324074</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41893,7 +41893,7 @@
         <v>45538.34193287037</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41955,7 +41955,7 @@
         <v>45005.35967592592</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -42012,7 +42012,7 @@
         <v>45005.47820601852</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -42074,7 +42074,7 @@
         <v>45628.59233796296</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -42131,7 +42131,7 @@
         <v>46038.49269675926</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42188,7 +42188,7 @@
         <v>45404.55239583334</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42250,7 +42250,7 @@
         <v>45404.55601851852</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42312,7 +42312,7 @@
         <v>44546.6679050926</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42369,7 +42369,7 @@
         <v>45768.49947916667</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42426,7 +42426,7 @@
         <v>46041.68443287037</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42483,7 +42483,7 @@
         <v>45194</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -42540,7 +42540,7 @@
         <v>46038.61067129629</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42597,7 +42597,7 @@
         <v>44721.52627314815</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42654,7 +42654,7 @@
         <v>46038.58241898148</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42711,7 +42711,7 @@
         <v>44876.35706018518</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42773,7 +42773,7 @@
         <v>45057</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42830,7 +42830,7 @@
         <v>45145</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42892,7 +42892,7 @@
         <v>44410.61837962963</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42954,7 +42954,7 @@
         <v>45166.68493055556</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -43016,7 +43016,7 @@
         <v>45338</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -43073,7 +43073,7 @@
         <v>46043.38744212963</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -43130,7 +43130,7 @@
         <v>45635.63706018519</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43187,7 +43187,7 @@
         <v>44441.70047453704</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43244,7 +43244,7 @@
         <v>45726.33763888889</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43301,7 +43301,7 @@
         <v>45726.34090277777</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43358,7 +43358,7 @@
         <v>46002.62465277778</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43415,7 +43415,7 @@
         <v>45159.44525462963</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43472,7 +43472,7 @@
         <v>45103.53614583334</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -43529,7 +43529,7 @@
         <v>46002.60324074074</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         <v>45061.53414351852</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43643,7 +43643,7 @@
         <v>45279</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43700,7 +43700,7 @@
         <v>45523.31621527778</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43757,7 +43757,7 @@
         <v>44833</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43814,7 +43814,7 @@
         <v>46002.61762731482</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43871,7 +43871,7 @@
         <v>45272.36168981482</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43928,7 +43928,7 @@
         <v>44927.72487268518</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43985,7 +43985,7 @@
         <v>45737.3846412037</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -44047,7 +44047,7 @@
         <v>45559</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -44109,7 +44109,7 @@
         <v>45982</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -44166,7 +44166,7 @@
         <v>45982</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44223,7 +44223,7 @@
         <v>45274</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44280,7 +44280,7 @@
         <v>46007.3708449074</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44337,7 +44337,7 @@
         <v>46049.84017361111</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44394,7 +44394,7 @@
         <v>45149</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44456,7 +44456,7 @@
         <v>45523.58565972222</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -44513,7 +44513,7 @@
         <v>45766.33309027777</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -44570,7 +44570,7 @@
         <v>46006.60633101852</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44632,7 +44632,7 @@
         <v>45007</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44694,7 +44694,7 @@
         <v>45600.60071759259</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44751,7 +44751,7 @@
         <v>45036</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44808,7 +44808,7 @@
         <v>44258</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44865,7 +44865,7 @@
         <v>46009.67175925926</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44922,7 +44922,7 @@
         <v>45741.64491898148</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44979,7 +44979,7 @@
         <v>44389</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45041,7 +45041,7 @@
         <v>45518.71048611111</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -45103,7 +45103,7 @@
         <v>45518.71202546296</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -45160,7 +45160,7 @@
         <v>45518.71591435185</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45217,7 +45217,7 @@
         <v>46009</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45274,7 +45274,7 @@
         <v>46051.53563657407</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45331,7 +45331,7 @@
         <v>45548</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45393,7 +45393,7 @@
         <v>46008.25765046296</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45450,7 +45450,7 @@
         <v>46051.53689814815</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -45507,7 +45507,7 @@
         <v>46008.26085648148</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -45564,7 +45564,7 @@
         <v>46013</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45621,7 +45621,7 @@
         <v>45125.41458333333</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45678,7 +45678,7 @@
         <v>46052.46519675926</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45735,7 +45735,7 @@
         <v>45113</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45792,7 +45792,7 @@
         <v>46002</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45849,7 +45849,7 @@
         <v>46002</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         <v>44841</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45963,7 +45963,7 @@
         <v>45061.52474537037</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46020,7 +46020,7 @@
         <v>46044</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -46077,7 +46077,7 @@
         <v>45170</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -46139,7 +46139,7 @@
         <v>45562.61158564815</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46196,7 +46196,7 @@
         <v>44371.47609953704</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46253,7 +46253,7 @@
         <v>45474.65005787037</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46315,7 +46315,7 @@
         <v>45511.40297453704</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46372,7 +46372,7 @@
         <v>44978</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46429,7 +46429,7 @@
         <v>44963.37709490741</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -46486,7 +46486,7 @@
         <v>46056.49075231481</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -46543,7 +46543,7 @@
         <v>46056.40149305556</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46600,7 +46600,7 @@
         <v>46056.40425925926</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46657,7 +46657,7 @@
         <v>44389</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46719,7 +46719,7 @@
         <v>45373.30434027778</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46781,7 +46781,7 @@
         <v>45005</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46838,7 +46838,7 @@
         <v>46057.60342592592</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46895,7 +46895,7 @@
         <v>45034.5174537037</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46952,7 +46952,7 @@
         <v>46038</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -47009,7 +47009,7 @@
         <v>44909</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -47066,7 +47066,7 @@
         <v>46058.35196759259</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -47123,7 +47123,7 @@
         <v>45582.57542824074</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47185,7 +47185,7 @@
         <v>46058.52864583334</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47242,7 +47242,7 @@
         <v>46058.30956018518</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47299,7 +47299,7 @@
         <v>46058.38300925926</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -47356,7 +47356,7 @@
         <v>44425</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -47418,7 +47418,7 @@
         <v>45635.69581018519</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -47475,7 +47475,7 @@
         <v>44740.66997685185</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -47532,7 +47532,7 @@
         <v>44431</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -47589,7 +47589,7 @@
         <v>45194</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -47646,7 +47646,7 @@
         <v>45615.69570601852</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47703,7 +47703,7 @@
         <v>45628.58975694444</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47760,7 +47760,7 @@
         <v>45707</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47817,7 +47817,7 @@
         <v>46043</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47874,7 +47874,7 @@
         <v>45756.49009259259</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47931,7 +47931,7 @@
         <v>45880</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47988,7 +47988,7 @@
         <v>46064.42460648148</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -48045,7 +48045,7 @@
         <v>45702</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -48102,7 +48102,7 @@
         <v>45575.55570601852</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -48164,7 +48164,7 @@
         <v>45218</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         <v>44457</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -48283,7 +48283,7 @@
         <v>44301</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -48345,7 +48345,7 @@
         <v>45590.39471064815</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -48402,7 +48402,7 @@
         <v>45434.65854166666</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -48459,7 +48459,7 @@
         <v>46071.45568287037</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -48516,7 +48516,7 @@
         <v>45082.31421296296</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -48578,7 +48578,7 @@
         <v>46029</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -48635,7 +48635,7 @@
         <v>46071.67334490741</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -48697,7 +48697,7 @@
         <v>46071.65692129629</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -48759,7 +48759,7 @@
         <v>45072</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48821,7 +48821,7 @@
         <v>45537.42240740741</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48878,7 +48878,7 @@
         <v>45519.52319444445</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48940,7 +48940,7 @@
         <v>45412.54541666667</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48997,7 +48997,7 @@
         <v>45387.24732638889</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49054,7 +49054,7 @@
         <v>45387.2521875</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -49111,7 +49111,7 @@
         <v>45554.7158912037</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -49173,7 +49173,7 @@
         <v>45141.76530092592</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -49230,7 +49230,7 @@
         <v>45400.66995370371</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -49292,7 +49292,7 @@
         <v>44389</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -49349,7 +49349,7 @@
         <v>44970.51849537037</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -49406,7 +49406,7 @@
         <v>45194</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -49463,7 +49463,7 @@
         <v>45218.488125</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -49525,7 +49525,7 @@
         <v>46030.47725694445</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -49582,7 +49582,7 @@
         <v>44866.79668981482</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -49639,7 +49639,7 @@
         <v>46031</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -49696,7 +49696,7 @@
         <v>45538</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -49753,7 +49753,7 @@
         <v>46030.44277777777</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49810,7 +49810,7 @@
         <v>45586</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -49872,7 +49872,7 @@
         <v>44621.85737268518</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49929,7 +49929,7 @@
         <v>45009.64217592592</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         <v>44566</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50043,7 +50043,7 @@
         <v>45667</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -50100,7 +50100,7 @@
         <v>45667</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -50162,7 +50162,7 @@
         <v>45139.63480324074</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -50224,7 +50224,7 @@
         <v>45575.57104166667</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -50281,7 +50281,7 @@
         <v>44602.45162037037</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -50338,7 +50338,7 @@
         <v>45103</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -50395,7 +50395,7 @@
         <v>45511.39445601852</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -50452,7 +50452,7 @@
         <v>44735.62539351852</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -50514,7 +50514,7 @@
         <v>45111</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -50571,7 +50571,7 @@
         <v>44950</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -50628,7 +50628,7 @@
         <v>44883</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -50685,7 +50685,7 @@
         <v>45254.68105324074</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -50747,7 +50747,7 @@
         <v>45525.7374537037</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -50804,7 +50804,7 @@
         <v>45177.33991898148</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         <v>45251</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -50923,7 +50923,7 @@
         <v>45393.35787037037</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50985,7 +50985,7 @@
         <v>45762.61817129629</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51042,7 +51042,7 @@
         <v>45107</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -51099,7 +51099,7 @@
         <v>44902</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -51156,7 +51156,7 @@
         <v>45744.32981481482</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -51213,7 +51213,7 @@
         <v>45519.52232638889</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -51275,7 +51275,7 @@
         <v>45107</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -51337,7 +51337,7 @@
         <v>44822</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -51394,7 +51394,7 @@
         <v>45274</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -51451,7 +51451,7 @@
         <v>45687</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -51508,7 +51508,7 @@
         <v>44438</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -51570,7 +51570,7 @@
         <v>45254</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -51632,7 +51632,7 @@
         <v>45736.308125</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -51689,7 +51689,7 @@
         <v>45095</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         <v>45571.71736111111</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -51808,7 +51808,7 @@
         <v>45575.56686342593</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -51870,7 +51870,7 @@
         <v>45575.56820601852</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -51932,7 +51932,7 @@
         <v>44916</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51989,7 +51989,7 @@
         <v>45170.45921296296</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -52051,7 +52051,7 @@
         <v>45546.68743055555</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -52113,7 +52113,7 @@
         <v>45211</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -52175,7 +52175,7 @@
         <v>44544</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -52232,7 +52232,7 @@
         <v>44473.6343287037</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -52289,7 +52289,7 @@
         <v>44484</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -52346,7 +52346,7 @@
         <v>45471.42659722222</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -52403,7 +52403,7 @@
         <v>45471.52072916667</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -52460,7 +52460,7 @@
         <v>45698</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -52522,7 +52522,7 @@
         <v>45698</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -52584,7 +52584,7 @@
         <v>45189</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -52641,7 +52641,7 @@
         <v>45372.40246527778</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -52698,7 +52698,7 @@
         <v>45079</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -52760,7 +52760,7 @@
         <v>45079</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -52822,7 +52822,7 @@
         <v>45462</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -52879,7 +52879,7 @@
         <v>45575.53331018519</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -52941,7 +52941,7 @@
         <v>45575.54489583334</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -53003,7 +53003,7 @@
         <v>45441.48670138889</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -53060,7 +53060,7 @@
         <v>44306.6371412037</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -53117,7 +53117,7 @@
         <v>45553</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -53179,7 +53179,7 @@
         <v>45646</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -53241,7 +53241,7 @@
         <v>45729.65061342593</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -53298,7 +53298,7 @@
         <v>45008</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -53360,7 +53360,7 @@
         <v>45113</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -53417,7 +53417,7 @@
         <v>45095</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -53474,7 +53474,7 @@
         <v>45377.48265046296</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -53531,7 +53531,7 @@
         <v>44342.39703703704</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -53593,7 +53593,7 @@
         <v>45664</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -53650,7 +53650,7 @@
         <v>45736</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -53707,7 +53707,7 @@
         <v>45274</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -53764,7 +53764,7 @@
         <v>45280</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         <v>44267</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -53883,7 +53883,7 @@
         <v>44890.46174768519</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -53940,7 +53940,7 @@
         <v>45334</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -53997,7 +53997,7 @@
         <v>45516.59447916667</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -54054,7 +54054,7 @@
         <v>44276</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -54111,7 +54111,7 @@
         <v>44753</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -54168,7 +54168,7 @@
         <v>45614.5968287037</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -54225,7 +54225,7 @@
         <v>45251.696875</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -54282,7 +54282,7 @@
         <v>45643</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -54339,7 +54339,7 @@
         <v>45749</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -54396,7 +54396,7 @@
         <v>45569.35209490741</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -54453,7 +54453,7 @@
         <v>45618.59456018519</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -54515,7 +54515,7 @@
         <v>45119</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -54577,7 +54577,7 @@
         <v>44946.54424768518</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -54634,7 +54634,7 @@
         <v>45618.58622685185</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -54696,7 +54696,7 @@
         <v>44809</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -54753,7 +54753,7 @@
         <v>45264.38084490741</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -54810,7 +54810,7 @@
         <v>45702</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -54867,7 +54867,7 @@
         <v>44564</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -54924,7 +54924,7 @@
         <v>45219</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -54986,7 +54986,7 @@
         <v>44665</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -55043,7 +55043,7 @@
         <v>45211</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -55100,7 +55100,7 @@
         <v>45593.59681712963</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -55157,7 +55157,7 @@
         <v>45749</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -55214,7 +55214,7 @@
         <v>45453.36664351852</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -55276,7 +55276,7 @@
         <v>44445.55690972223</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -55338,7 +55338,7 @@
         <v>45777.42628472222</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -55400,7 +55400,7 @@
         <v>45777.41673611111</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -55462,7 +55462,7 @@
         <v>45733.60959490741</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -55519,7 +55519,7 @@
         <v>45777</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -55581,7 +55581,7 @@
         <v>45777.43878472222</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -55643,7 +55643,7 @@
         <v>45776.65518518518</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -55700,7 +55700,7 @@
         <v>45783.71833333333</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -55757,7 +55757,7 @@
         <v>45567.68003472222</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -55814,7 +55814,7 @@
         <v>45509.73383101852</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -55871,7 +55871,7 @@
         <v>45460.46358796296</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -55928,7 +55928,7 @@
         <v>45569.3533912037</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -55985,7 +55985,7 @@
         <v>45253</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -56047,7 +56047,7 @@
         <v>45203.45681712963</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -56104,7 +56104,7 @@
         <v>45785.4253125</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -56161,7 +56161,7 @@
         <v>45229.66430555555</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -56223,7 +56223,7 @@
         <v>45267.69052083333</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -56285,7 +56285,7 @@
         <v>45537.65305555556</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -56347,7 +56347,7 @@
         <v>45788.42467592593</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -56404,7 +56404,7 @@
         <v>45537.665</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -56466,7 +56466,7 @@
         <v>45104.34107638889</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -56528,7 +56528,7 @@
         <v>45786</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -56590,7 +56590,7 @@
         <v>45639.30934027778</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -56647,7 +56647,7 @@
         <v>45791.50862268519</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -56704,7 +56704,7 @@
         <v>45181</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -56766,7 +56766,7 @@
         <v>45418.66800925926</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -56823,7 +56823,7 @@
         <v>45618</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -56880,7 +56880,7 @@
         <v>45667</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -56942,7 +56942,7 @@
         <v>45440.5433912037</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -56999,7 +56999,7 @@
         <v>45793.61047453704</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -57061,7 +57061,7 @@
         <v>45793.62422453704</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -57123,7 +57123,7 @@
         <v>45456.90869212963</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -57185,7 +57185,7 @@
         <v>45795.71300925926</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -57242,7 +57242,7 @@
         <v>45795.70912037037</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -57299,7 +57299,7 @@
         <v>45155.5653125</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -57356,7 +57356,7 @@
         <v>45244</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -57413,7 +57413,7 @@
         <v>45796.44885416667</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -57475,7 +57475,7 @@
         <v>45794.33498842592</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -57532,7 +57532,7 @@
         <v>45796</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -57594,7 +57594,7 @@
         <v>45794.3419212963</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -57651,7 +57651,7 @@
         <v>45796</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -57713,7 +57713,7 @@
         <v>45796.45054398148</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -57775,7 +57775,7 @@
         <v>45795.71547453704</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -57832,7 +57832,7 @@
         <v>45456.48927083334</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -57889,7 +57889,7 @@
         <v>45729.60775462963</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -57946,7 +57946,7 @@
         <v>45590.37590277778</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -58003,7 +58003,7 @@
         <v>45803</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -58065,7 +58065,7 @@
         <v>45804.45474537037</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -58122,7 +58122,7 @@
         <v>45804.67795138889</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -58179,7 +58179,7 @@
         <v>45804.45584490741</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -58236,7 +58236,7 @@
         <v>45812.56952546296</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -58298,7 +58298,7 @@
         <v>45812.57143518519</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -58360,7 +58360,7 @@
         <v>45812.57452546297</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -58422,7 +58422,7 @@
         <v>45812.57604166667</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -58484,7 +58484,7 @@
         <v>45817.6455324074</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>

--- a/Översikt LINDESBERG.xlsx
+++ b/Översikt LINDESBERG.xlsx
@@ -575,7 +575,7 @@
         <v>45615</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         <v>45252</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
         <v>45905.90649305555</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44850.83328703704</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>45967.61619212963</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>44375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45810.54824074074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45905.90519675926</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>44406</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45905.89554398148</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>45964.63199074074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>45568.63905092593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>45099</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>44320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>45888.67560185185</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>45138</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>44484</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>45888.67765046296</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         <v>45099</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>45218</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>45905.90789351852</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>45905.83755787037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>45845.75751157408</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>45940.69754629629</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>45616.38605324074</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>44472</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>45138</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>45670</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>45905.88938657408</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>45952.35611111111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>45964.62771990741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>45964.40112268519</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>45980.01497685185</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>44280</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>45021</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>44789</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>46064.41263888889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>45615</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>45546.28121527778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44375</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44512</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>44713.59363425926</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>44320</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>44679</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         <v>45518</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>45575.54934027778</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>45645</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>44949</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>45832.56153935185</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>45827.53077546296</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>45281</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5326,7 +5326,7 @@
         <v>45645</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>45537.64484953704</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>45922.49990740741</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>45881.42446759259</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>45937.54982638889</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>44522</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>45946.45171296296</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>45946.44423611111</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>45946.44790509259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>45952.68596064814</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>45953.69287037037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>45964.3965625</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>45980.37108796297</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6481,7 +6481,7 @@
         <v>45980.3659375</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>45618.58876157407</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>45698.46697916667</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>46038.45296296296</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6840,7 +6840,7 @@
         <v>45478.39592592593</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>45411.42858796296</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>45614.68596064814</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>46064.42189814815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>46064</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>46064.4325</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         <v>46064</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>46064.43017361111</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>44536</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>45250</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>45104.3483912037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>45475.92849537037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>45614.68287037037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>45782.5300462963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>45783.66537037037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>44260.30453703704</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>44295.61297453703</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>44889.5746875</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>44267</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>44431.69783564815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>44853.61925925926</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44495.87667824074</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44447.51184027778</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>44453</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>44445.4953587963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>44484</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44508</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44284.70511574074</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44271</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44327</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>44503</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>44386</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>44462</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>44613</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>44280</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>44427.75243055556</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>44300</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>44431.69723379629</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>44441.66886574074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>44332</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>44721.53951388889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>44722.78552083333</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44862</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44577.82805555555</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>44460</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>44481</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>44754</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>44714</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>44627</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>44638</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>44790</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>44676</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>44377</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>44377.44943287037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>44603</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>44630</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>44862</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10591,7 +10591,7 @@
         <v>44713.61145833333</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>44629</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>44375</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>44671</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>44706.65927083333</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44468.34099537037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>44260.31335648148</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11005,7 +11005,7 @@
         <v>44257</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11067,7 +11067,7 @@
         <v>44418.58454861111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11124,7 +11124,7 @@
         <v>44259</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>44577.84596064815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11238,7 +11238,7 @@
         <v>44273</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>44505.36354166667</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11352,7 +11352,7 @@
         <v>44671</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11409,7 +11409,7 @@
         <v>44546.67978009259</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11466,7 +11466,7 @@
         <v>44375</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11523,7 +11523,7 @@
         <v>44326</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11580,7 +11580,7 @@
         <v>44325</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         <v>44823.37396990741</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11694,7 +11694,7 @@
         <v>44378.55319444444</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11756,7 +11756,7 @@
         <v>44522.87423611111</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11813,7 +11813,7 @@
         <v>44635.51386574074</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11870,7 +11870,7 @@
         <v>44357</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11927,7 +11927,7 @@
         <v>44820</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11984,7 +11984,7 @@
         <v>44434.74203703704</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12041,7 +12041,7 @@
         <v>44484.56523148148</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12098,7 +12098,7 @@
         <v>44691</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12155,7 +12155,7 @@
         <v>44305</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12212,7 +12212,7 @@
         <v>44694.29309027778</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>44505</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         <v>44490</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>44629</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12445,7 +12445,7 @@
         <v>44693.66775462963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         <v>44425.40128472223</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12569,7 +12569,7 @@
         <v>44665</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         <v>44459.57613425926</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>44447</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12740,7 +12740,7 @@
         <v>44432.68241898148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12802,7 +12802,7 @@
         <v>44432</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>44594</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12941,7 +12941,7 @@
         <v>44326.7296412037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44487.51556712963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>44463</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13112,7 +13112,7 @@
         <v>44497</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>44456</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44819</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44733.71126157408</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>44672</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>44825.99293981482</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44438.30614583333</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44449</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44622.69101851852</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44875.47543981481</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44334.60293981482</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44491</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44526</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44389</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44446</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44889.68100694445</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44602</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44389</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>44777</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>44451.78710648148</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>44665</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>44502.49809027778</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>44502</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44268.55900462963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44491</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44481.34877314815</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44784</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         <v>44332.74105324074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>44384.56912037037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14775,7 +14775,7 @@
         <v>44453</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14832,7 +14832,7 @@
         <v>44420.60616898148</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>44536</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>44860</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>44451</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>44873.47148148148</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>44536</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>44267</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>44376</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>44607.64115740741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>44608</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44389</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>44539.31923611111</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>44539</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44650.47945601852</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44479.58512731481</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44618</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44636.46935185185</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44363</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>44511.39611111111</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>44490</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>44784.38697916667</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>44698.62354166667</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16111,7 +16111,7 @@
         <v>45310</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16168,7 +16168,7 @@
         <v>45736.30940972222</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>45530</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>45289</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>45518.71482638889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>44531.3575</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>44445</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>45439.56605324074</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>44967.60165509259</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>44389</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16691,7 +16691,7 @@
         <v>45532</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16748,7 +16748,7 @@
         <v>45112.67952546296</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16805,7 +16805,7 @@
         <v>45107</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16862,7 +16862,7 @@
         <v>44378.46403935185</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16919,7 +16919,7 @@
         <v>44974.55693287037</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16976,7 +16976,7 @@
         <v>45030</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         <v>45404.55681712963</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>44683</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
         <v>45611.44960648148</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>45604.58837962963</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>45384.43418981481</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17328,7 +17328,7 @@
         <v>45646.63482638889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17385,7 +17385,7 @@
         <v>45755.68247685185</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17442,7 +17442,7 @@
         <v>44943.73792824074</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17499,7 +17499,7 @@
         <v>45140</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17556,7 +17556,7 @@
         <v>45054</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>45751.50498842593</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17670,7 +17670,7 @@
         <v>45158.41768518519</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17727,7 +17727,7 @@
         <v>45580.73525462963</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>45583</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>45183.48666666666</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17908,7 +17908,7 @@
         <v>45194</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44853.79818287037</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>45568.64523148148</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18084,7 +18084,7 @@
         <v>45074</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18141,7 +18141,7 @@
         <v>45575.53690972222</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>45575.56256944445</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>45488.41480324074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>45075.44152777778</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>45305</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>45310.87931712963</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>45344.6027662037</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>45608</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18617,7 +18617,7 @@
         <v>45610.7466087963</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18674,7 +18674,7 @@
         <v>45243.62420138889</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18736,7 +18736,7 @@
         <v>45243</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18798,7 +18798,7 @@
         <v>45749</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18855,7 +18855,7 @@
         <v>45177.31795138889</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>45330</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>45097.38688657407</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>45541.66916666667</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19093,7 +19093,7 @@
         <v>44259</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19150,7 +19150,7 @@
         <v>45243</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>45749.47251157407</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>45272.57385416667</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>44988</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19383,7 +19383,7 @@
         <v>45749.4737962963</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>45497</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19497,7 +19497,7 @@
         <v>44803.64361111111</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>45369</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19611,7 +19611,7 @@
         <v>45077</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>45162.5978125</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19730,7 +19730,7 @@
         <v>45744.57851851852</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>45691.36253472222</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>45433.58099537037</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>45461.62924768519</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>45327</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>45749</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>44378.46857638889</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>44888.4577662037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>45744.57673611111</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>45108.7553587963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>44928</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>45749.42258101852</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>44902</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>45173.39315972223</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44979</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>45168.92155092592</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>45168.94197916667</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>45441.30899305556</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45441.30998842593</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20843,7 +20843,7 @@
         <v>44300</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20900,7 +20900,7 @@
         <v>45645.3712037037</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20962,7 +20962,7 @@
         <v>44480.58034722223</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21019,7 +21019,7 @@
         <v>45547.36590277778</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21076,7 +21076,7 @@
         <v>45048</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21133,7 +21133,7 @@
         <v>44574.50425925926</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>45201</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>45201.60283564815</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>45329</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>45518.71721064814</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>45610</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44551</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>44675</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>45887.56101851852</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>45820.61684027778</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>45821.37199074074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>45821.46135416667</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>45821.46486111111</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21914,7 +21914,7 @@
         <v>45821.44521990741</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>45889.67577546297</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
         <v>45889.66935185185</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>45376.70292824074</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44865.600625</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>45889.67290509259</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22276,7 +22276,7 @@
         <v>45827.51862268519</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22338,7 +22338,7 @@
         <v>45103</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22395,7 +22395,7 @@
         <v>45826.52024305556</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22457,7 +22457,7 @@
         <v>44546.67222222222</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22514,7 +22514,7 @@
         <v>45827.56939814815</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>45194</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44908.49152777778</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22690,7 +22690,7 @@
         <v>45471.40384259259</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22747,7 +22747,7 @@
         <v>45827.51753472222</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>45827.51956018519</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>45707</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>45895.4790625</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>45895.47704861111</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23052,7 +23052,7 @@
         <v>45895.48394675926</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23114,7 +23114,7 @@
         <v>45827.51628472222</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         <v>45895.49994212963</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>45471.52878472222</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>45523</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23352,7 +23352,7 @@
         <v>45148</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23409,7 +23409,7 @@
         <v>45895.48927083334</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23471,7 +23471,7 @@
         <v>45152.34586805556</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23533,7 +23533,7 @@
         <v>45189.38135416667</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>45832.76100694444</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>45832.76491898148</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23714,7 +23714,7 @@
         <v>44577.81121527778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23771,7 +23771,7 @@
         <v>45832.49325231482</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
         <v>45832.51255787037</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23895,7 +23895,7 @@
         <v>45832.55810185185</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23957,7 +23957,7 @@
         <v>45738.42981481482</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24014,7 +24014,7 @@
         <v>45832.72778935185</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         <v>45519.51627314815</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24138,7 +24138,7 @@
         <v>45832.5902662037</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24200,7 +24200,7 @@
         <v>44900.36149305556</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24257,7 +24257,7 @@
         <v>45899.38057870371</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24314,7 +24314,7 @@
         <v>45832.74418981482</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>45898.37138888889</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         <v>45099</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>45832.49579861111</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24557,7 +24557,7 @@
         <v>45832.51028935185</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>44503</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>44553.35407407407</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>45594.63747685185</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>45835.68443287037</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>44951.5830324074</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>45373.34383101852</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>45903.37475694445</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25028,7 +25028,7 @@
         <v>45131</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>45078.82620370371</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25142,7 +25142,7 @@
         <v>45902.3406712963</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25199,7 +25199,7 @@
         <v>45068</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>45188</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>45218</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25375,7 +25375,7 @@
         <v>45266.58394675926</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25432,7 +25432,7 @@
         <v>45170</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>45227.31859953704</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25551,7 +25551,7 @@
         <v>45905.89143518519</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>45905.89236111111</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25675,7 +25675,7 @@
         <v>45838.46456018519</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25737,7 +25737,7 @@
         <v>45838.46408564815</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>45384</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25856,7 +25856,7 @@
         <v>45516.4221412037</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>45575.55273148148</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25980,7 +25980,7 @@
         <v>45575.5547337963</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26042,7 +26042,7 @@
         <v>45575.55684027778</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26104,7 +26104,7 @@
         <v>45905.89329861111</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>45840</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>45881.43759259259</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>45714</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26337,7 +26337,7 @@
         <v>45642</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26394,7 +26394,7 @@
         <v>45844.5775</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>45845.49216435185</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26513,7 +26513,7 @@
         <v>45091.39362268519</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26570,7 +26570,7 @@
         <v>45201</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26632,7 +26632,7 @@
         <v>45618.58962962963</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26694,7 +26694,7 @@
         <v>45538</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26756,7 +26756,7 @@
         <v>45520.32887731482</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26818,7 +26818,7 @@
         <v>45257.48188657407</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         <v>44420</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26932,7 +26932,7 @@
         <v>45265.64142361111</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26989,7 +26989,7 @@
         <v>45912.63751157407</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27051,7 +27051,7 @@
         <v>45685</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27108,7 +27108,7 @@
         <v>45614.68083333333</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27165,7 +27165,7 @@
         <v>45844.57328703703</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>45844.57527777777</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27289,7 +27289,7 @@
         <v>45845.4855787037</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         <v>45915.54983796296</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27403,7 +27403,7 @@
         <v>44431</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27460,7 +27460,7 @@
         <v>45915.49238425926</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27517,7 +27517,7 @@
         <v>45912.63451388889</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27579,7 +27579,7 @@
         <v>45119.46452546296</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>45845.76005787037</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27698,7 +27698,7 @@
         <v>45845.75200231482</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27755,7 +27755,7 @@
         <v>45348</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>45912.63359953704</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>45915.54439814815</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27931,7 +27931,7 @@
         <v>45729.65171296296</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27988,7 +27988,7 @@
         <v>45917.31780092593</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28050,7 +28050,7 @@
         <v>45138</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28112,7 +28112,7 @@
         <v>45488.42258101852</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28169,7 +28169,7 @@
         <v>45316</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         <v>44728</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28283,7 +28283,7 @@
         <v>45694</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28340,7 +28340,7 @@
         <v>45393.3562962963</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28402,7 +28402,7 @@
         <v>45393.36060185185</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28464,7 +28464,7 @@
         <v>45670.69458333333</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28521,7 +28521,7 @@
         <v>45537.64621527777</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28583,7 +28583,7 @@
         <v>45854</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28640,7 +28640,7 @@
         <v>45854</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28697,7 +28697,7 @@
         <v>45222</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28754,7 +28754,7 @@
         <v>45860.3857175926</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28811,7 +28811,7 @@
         <v>44949</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28868,7 +28868,7 @@
         <v>45860.36222222223</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28925,7 +28925,7 @@
         <v>44895</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28982,7 +28982,7 @@
         <v>45587</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29039,7 +29039,7 @@
         <v>45925.56173611111</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29101,7 +29101,7 @@
         <v>45323</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29158,7 +29158,7 @@
         <v>45106</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29215,7 +29215,7 @@
         <v>44990</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29272,7 +29272,7 @@
         <v>45534.54032407407</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29334,7 +29334,7 @@
         <v>45925.70290509259</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>45357.34521990741</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29458,7 +29458,7 @@
         <v>45831</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29515,7 +29515,7 @@
         <v>45575.65721064815</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>45554.71863425926</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29639,7 +29639,7 @@
         <v>45831</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29696,7 +29696,7 @@
         <v>45769.98449074074</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29753,7 +29753,7 @@
         <v>45870</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29810,7 +29810,7 @@
         <v>45870</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29867,7 +29867,7 @@
         <v>45072.42776620371</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29929,7 +29929,7 @@
         <v>45870</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         <v>45477.70315972222</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         <v>45926.62039351852</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30100,7 +30100,7 @@
         <v>45404.68190972223</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30162,7 +30162,7 @@
         <v>45870</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30219,7 +30219,7 @@
         <v>45931.57967592592</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30276,7 +30276,7 @@
         <v>45252.78021990741</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30333,7 +30333,7 @@
         <v>44577.83484953704</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30390,7 +30390,7 @@
         <v>45931.57756944445</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30447,7 +30447,7 @@
         <v>45077</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30509,7 +30509,7 @@
         <v>45077</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30571,7 +30571,7 @@
         <v>45077</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30633,7 +30633,7 @@
         <v>45874.40503472222</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30695,7 +30695,7 @@
         <v>45877.64431712963</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30757,7 +30757,7 @@
         <v>45877.63989583333</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30819,7 +30819,7 @@
         <v>45877.64144675926</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30881,7 +30881,7 @@
         <v>45877.64605324074</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30943,7 +30943,7 @@
         <v>45877.65075231482</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31005,7 +31005,7 @@
         <v>45877.64847222222</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31067,7 +31067,7 @@
         <v>45454.49679398148</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31124,7 +31124,7 @@
         <v>44846</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31181,7 +31181,7 @@
         <v>45877.64776620371</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31243,7 +31243,7 @@
         <v>45876.59166666667</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31300,7 +31300,7 @@
         <v>45719.52871527777</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31362,7 +31362,7 @@
         <v>45877.64230324074</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31424,7 +31424,7 @@
         <v>45618</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31486,7 +31486,7 @@
         <v>45881.42791666667</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31543,7 +31543,7 @@
         <v>45880</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31600,7 +31600,7 @@
         <v>45880.46056712963</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31657,7 +31657,7 @@
         <v>44594.84091435185</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31714,7 +31714,7 @@
         <v>45880.28673611111</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         <v>45932.68006944445</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31828,7 +31828,7 @@
         <v>45645.3737962963</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31890,7 +31890,7 @@
         <v>45881.59550925926</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31947,7 +31947,7 @@
         <v>45936.68452546297</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32004,7 +32004,7 @@
         <v>45936.49210648148</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         <v>45880.3172337963</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32123,7 +32123,7 @@
         <v>45936.37523148148</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32185,7 +32185,7 @@
         <v>45177.33091435185</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>45574.65189814815</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32309,7 +32309,7 @@
         <v>45936.36637731481</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32371,7 +32371,7 @@
         <v>45936.49026620371</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32433,7 +32433,7 @@
         <v>45936.37237268518</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>45093.48221064815</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>45937.4484837963</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32614,7 +32614,7 @@
         <v>45937.54697916667</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32676,7 +32676,7 @@
         <v>45937.56420138889</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32738,7 +32738,7 @@
         <v>45937.56798611111</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32800,7 +32800,7 @@
         <v>45937.71556712963</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32857,7 +32857,7 @@
         <v>45937.92319444445</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32914,7 +32914,7 @@
         <v>45769.66260416667</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
         <v>45813</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33028,7 +33028,7 @@
         <v>45265.49225694445</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33085,7 +33085,7 @@
         <v>45937.58590277778</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33147,7 +33147,7 @@
         <v>45344.623125</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33204,7 +33204,7 @@
         <v>45938.39741898148</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33261,7 +33261,7 @@
         <v>44425.40297453704</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33323,7 +33323,7 @@
         <v>45699.65424768518</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33380,7 +33380,7 @@
         <v>45939.67951388889</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33442,7 +33442,7 @@
         <v>45546.46497685185</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33504,7 +33504,7 @@
         <v>45940.69862268519</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33566,7 +33566,7 @@
         <v>44449</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33623,7 +33623,7 @@
         <v>45884</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33680,7 +33680,7 @@
         <v>44522</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33737,7 +33737,7 @@
         <v>45343.58587962963</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33794,7 +33794,7 @@
         <v>45940.69521990741</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33856,7 +33856,7 @@
         <v>45684.5790162037</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33913,7 +33913,7 @@
         <v>45134.68158564815</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33970,7 +33970,7 @@
         <v>45940.69643518519</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34032,7 +34032,7 @@
         <v>45940.70018518518</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34094,7 +34094,7 @@
         <v>45943.45966435185</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34151,7 +34151,7 @@
         <v>45943.47649305555</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34213,7 +34213,7 @@
         <v>45943.4603125</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34275,7 +34275,7 @@
         <v>45237.67819444444</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34332,7 +34332,7 @@
         <v>45729.76231481481</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34389,7 +34389,7 @@
         <v>45749</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34446,7 +34446,7 @@
         <v>44978</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34503,7 +34503,7 @@
         <v>44868.36924768519</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34565,7 +34565,7 @@
         <v>45645</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34627,7 +34627,7 @@
         <v>45667</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34684,7 +34684,7 @@
         <v>45884.38858796296</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34741,7 +34741,7 @@
         <v>45947.62353009259</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34798,7 +34798,7 @@
         <v>45530</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34855,7 +34855,7 @@
         <v>44865.87770833333</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34912,7 +34912,7 @@
         <v>44990</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34969,7 +34969,7 @@
         <v>45947.60508101852</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35031,7 +35031,7 @@
         <v>44946</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35088,7 +35088,7 @@
         <v>45946.68859953704</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35150,7 +35150,7 @@
         <v>45946.44216435185</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35212,7 +35212,7 @@
         <v>45400.6709837963</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35274,7 +35274,7 @@
         <v>45173</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35331,7 +35331,7 @@
         <v>45947.40105324074</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35393,7 +35393,7 @@
         <v>45946.69616898148</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35450,7 +35450,7 @@
         <v>44791</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35507,7 +35507,7 @@
         <v>44902</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35569,7 +35569,7 @@
         <v>45952.68358796297</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35631,7 +35631,7 @@
         <v>45399.56596064815</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35693,7 +35693,7 @@
         <v>45952.70765046297</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35750,7 +35750,7 @@
         <v>45952.68001157408</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35812,7 +35812,7 @@
         <v>45952.68439814815</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35874,7 +35874,7 @@
         <v>45099.27354166667</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35936,7 +35936,7 @@
         <v>45685</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35993,7 +35993,7 @@
         <v>44308</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36055,7 +36055,7 @@
         <v>45952.68271990741</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36117,7 +36117,7 @@
         <v>45952.68524305556</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36179,7 +36179,7 @@
         <v>45586.55451388889</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36236,7 +36236,7 @@
         <v>45953.61387731481</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36293,7 +36293,7 @@
         <v>45957.36386574074</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36355,7 +36355,7 @@
         <v>45097.39893518519</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36412,7 +36412,7 @@
         <v>45548</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36474,7 +36474,7 @@
         <v>45548</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>45954.35075231481</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36598,7 +36598,7 @@
         <v>45954.35387731482</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36660,7 +36660,7 @@
         <v>45440</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36717,7 +36717,7 @@
         <v>45958.79287037037</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36774,7 +36774,7 @@
         <v>45328</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36836,7 +36836,7 @@
         <v>45958.55577546296</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36898,7 +36898,7 @@
         <v>45646.63839120371</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         <v>45341.56577546296</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37017,7 +37017,7 @@
         <v>45565</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37074,7 +37074,7 @@
         <v>45714.31533564815</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37131,7 +37131,7 @@
         <v>45960</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37188,7 +37188,7 @@
         <v>45960.62986111111</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37245,7 +37245,7 @@
         <v>44970</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37302,7 +37302,7 @@
         <v>45229</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37359,7 +37359,7 @@
         <v>45964.64599537037</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37421,7 +37421,7 @@
         <v>45964.34680555556</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37478,7 +37478,7 @@
         <v>45538.34460648148</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37540,7 +37540,7 @@
         <v>45964.3550925926</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37597,7 +37597,7 @@
         <v>45964.64709490741</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37659,7 +37659,7 @@
         <v>45964.64778935185</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37721,7 +37721,7 @@
         <v>45964.62796296296</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37778,7 +37778,7 @@
         <v>44355</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37840,7 +37840,7 @@
         <v>44511</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37897,7 +37897,7 @@
         <v>45203.510625</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37954,7 +37954,7 @@
         <v>45229.66262731481</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38016,7 +38016,7 @@
         <v>45967.7096875</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38073,7 +38073,7 @@
         <v>44602.45490740741</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38130,7 +38130,7 @@
         <v>45968.63695601852</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38192,7 +38192,7 @@
         <v>45574.65087962963</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38254,7 +38254,7 @@
         <v>45085</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38311,7 +38311,7 @@
         <v>45971.56197916667</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38368,7 +38368,7 @@
         <v>45971.57659722222</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38425,7 +38425,7 @@
         <v>45738.43714120371</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38482,7 +38482,7 @@
         <v>45974.61217592593</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38544,7 +38544,7 @@
         <v>45229</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38601,7 +38601,7 @@
         <v>45974.61344907407</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38663,7 +38663,7 @@
         <v>45974.53239583333</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38720,7 +38720,7 @@
         <v>45565.40700231482</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38777,7 +38777,7 @@
         <v>45538.34796296297</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38839,7 +38839,7 @@
         <v>45974.51283564815</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38896,7 +38896,7 @@
         <v>45303</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38953,7 +38953,7 @@
         <v>45471.38995370371</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39010,7 +39010,7 @@
         <v>45978.71075231482</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39067,7 +39067,7 @@
         <v>44734.64337962963</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -39124,7 +39124,7 @@
         <v>44906.73321759259</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39181,7 +39181,7 @@
         <v>45047.7181712963</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39238,7 +39238,7 @@
         <v>44424.61709490741</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39295,7 +39295,7 @@
         <v>45979.81347222222</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39357,7 +39357,7 @@
         <v>45980.01226851852</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39419,7 +39419,7 @@
         <v>45979.81403935186</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39481,7 +39481,7 @@
         <v>45980.36866898148</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39543,7 +39543,7 @@
         <v>45980.36988425926</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39605,7 +39605,7 @@
         <v>45568.62625</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39667,7 +39667,7 @@
         <v>45979.97458333334</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39729,7 +39729,7 @@
         <v>45980.00710648148</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>45980.00753472222</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39853,7 +39853,7 @@
         <v>45980.0115625</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39915,7 +39915,7 @@
         <v>45980.01553240741</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39977,7 +39977,7 @@
         <v>45980.3716087963</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -40039,7 +40039,7 @@
         <v>45980.36633101852</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -40101,7 +40101,7 @@
         <v>44984</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -40158,7 +40158,7 @@
         <v>45980.36679398148</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40220,7 +40220,7 @@
         <v>45273</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40277,7 +40277,7 @@
         <v>45982.71017361111</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40334,7 +40334,7 @@
         <v>45394.51289351852</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40391,7 +40391,7 @@
         <v>45653.53664351852</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40448,7 +40448,7 @@
         <v>45139.64328703703</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40510,7 +40510,7 @@
         <v>45618.59219907408</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40572,7 +40572,7 @@
         <v>45987.60012731481</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -40629,7 +40629,7 @@
         <v>45698</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40686,7 +40686,7 @@
         <v>45355.70009259259</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40743,7 +40743,7 @@
         <v>45702</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40800,7 +40800,7 @@
         <v>44979</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40857,7 +40857,7 @@
         <v>44319</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40914,7 +40914,7 @@
         <v>46034.65601851852</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40971,7 +40971,7 @@
         <v>44958.58982638889</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -41028,7 +41028,7 @@
         <v>45043.40300925926</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -41085,7 +41085,7 @@
         <v>45694</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -41147,7 +41147,7 @@
         <v>45751.5056712963</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41204,7 +41204,7 @@
         <v>45233.42121527778</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         <v>46035</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41323,7 +41323,7 @@
         <v>45995</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41380,7 +41380,7 @@
         <v>46037.69133101852</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41437,7 +41437,7 @@
         <v>44981</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41494,7 +41494,7 @@
         <v>45642.66184027777</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -41551,7 +41551,7 @@
         <v>45995</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -41608,7 +41608,7 @@
         <v>46038.55849537037</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41665,7 +41665,7 @@
         <v>46038.59640046296</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41722,7 +41722,7 @@
         <v>46041.54181712963</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41779,7 +41779,7 @@
         <v>46038.61912037037</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41836,7 +41836,7 @@
         <v>45999.43730324074</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41893,7 +41893,7 @@
         <v>45538.34193287037</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41955,7 +41955,7 @@
         <v>45005.35967592592</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -42012,7 +42012,7 @@
         <v>45005.47820601852</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -42074,7 +42074,7 @@
         <v>45628.59233796296</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -42131,7 +42131,7 @@
         <v>46038.49269675926</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42188,7 +42188,7 @@
         <v>45404.55239583334</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42250,7 +42250,7 @@
         <v>45404.55601851852</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42312,7 +42312,7 @@
         <v>44546.6679050926</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42369,7 +42369,7 @@
         <v>45768.49947916667</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42426,7 +42426,7 @@
         <v>46041.68443287037</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42483,7 +42483,7 @@
         <v>45194</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -42540,7 +42540,7 @@
         <v>46038.61067129629</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42597,7 +42597,7 @@
         <v>44721.52627314815</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42654,7 +42654,7 @@
         <v>46038.58241898148</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42711,7 +42711,7 @@
         <v>44876.35706018518</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42773,7 +42773,7 @@
         <v>45057</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42830,7 +42830,7 @@
         <v>45145</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42892,7 +42892,7 @@
         <v>44410.61837962963</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42954,7 +42954,7 @@
         <v>45166.68493055556</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -43016,7 +43016,7 @@
         <v>45338</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -43073,7 +43073,7 @@
         <v>46043.38744212963</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -43130,7 +43130,7 @@
         <v>45635.63706018519</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43187,7 +43187,7 @@
         <v>44441.70047453704</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43244,7 +43244,7 @@
         <v>45726.33763888889</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43301,7 +43301,7 @@
         <v>45726.34090277777</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43358,7 +43358,7 @@
         <v>46002.62465277778</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43415,7 +43415,7 @@
         <v>45159.44525462963</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43472,7 +43472,7 @@
         <v>45103.53614583334</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -43529,7 +43529,7 @@
         <v>46002.60324074074</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         <v>45061.53414351852</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43643,7 +43643,7 @@
         <v>45279</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43700,7 +43700,7 @@
         <v>45523.31621527778</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43757,7 +43757,7 @@
         <v>44833</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43814,7 +43814,7 @@
         <v>46002.61762731482</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43871,7 +43871,7 @@
         <v>45272.36168981482</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43928,7 +43928,7 @@
         <v>44927.72487268518</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43985,7 +43985,7 @@
         <v>45737.3846412037</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -44047,7 +44047,7 @@
         <v>45559</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -44109,7 +44109,7 @@
         <v>45982</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -44166,7 +44166,7 @@
         <v>45982</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44223,7 +44223,7 @@
         <v>45274</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44280,7 +44280,7 @@
         <v>46007.3708449074</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44337,7 +44337,7 @@
         <v>46049.84017361111</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44394,7 +44394,7 @@
         <v>45149</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44456,7 +44456,7 @@
         <v>45523.58565972222</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -44513,7 +44513,7 @@
         <v>45766.33309027777</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -44570,7 +44570,7 @@
         <v>46006.60633101852</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44632,7 +44632,7 @@
         <v>45007</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44694,7 +44694,7 @@
         <v>45600.60071759259</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44751,7 +44751,7 @@
         <v>45036</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44808,7 +44808,7 @@
         <v>44258</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44865,7 +44865,7 @@
         <v>46009.67175925926</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44922,7 +44922,7 @@
         <v>45741.64491898148</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44979,7 +44979,7 @@
         <v>44389</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45041,7 +45041,7 @@
         <v>45518.71048611111</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -45103,7 +45103,7 @@
         <v>45518.71202546296</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -45160,7 +45160,7 @@
         <v>45518.71591435185</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45217,7 +45217,7 @@
         <v>46009</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45274,7 +45274,7 @@
         <v>46051.53563657407</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45331,7 +45331,7 @@
         <v>45548</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45393,7 +45393,7 @@
         <v>46008.25765046296</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45450,7 +45450,7 @@
         <v>46051.53689814815</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -45507,7 +45507,7 @@
         <v>46008.26085648148</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -45564,7 +45564,7 @@
         <v>46013</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45621,7 +45621,7 @@
         <v>45125.41458333333</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45678,7 +45678,7 @@
         <v>46052.46519675926</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45735,7 +45735,7 @@
         <v>45113</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45792,7 +45792,7 @@
         <v>46002</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45849,7 +45849,7 @@
         <v>46002</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         <v>44841</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45963,7 +45963,7 @@
         <v>45061.52474537037</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46020,7 +46020,7 @@
         <v>46044</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -46077,7 +46077,7 @@
         <v>45170</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -46139,7 +46139,7 @@
         <v>45562.61158564815</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46196,7 +46196,7 @@
         <v>44371.47609953704</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46253,7 +46253,7 @@
         <v>45474.65005787037</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46315,7 +46315,7 @@
         <v>45511.40297453704</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46372,7 +46372,7 @@
         <v>44978</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46429,7 +46429,7 @@
         <v>44963.37709490741</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -46486,7 +46486,7 @@
         <v>46056.49075231481</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -46543,7 +46543,7 @@
         <v>46056.40149305556</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46600,7 +46600,7 @@
         <v>46056.40425925926</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46657,7 +46657,7 @@
         <v>44389</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46719,7 +46719,7 @@
         <v>45373.30434027778</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46781,7 +46781,7 @@
         <v>45005</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46838,7 +46838,7 @@
         <v>46057.60342592592</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46895,7 +46895,7 @@
         <v>45034.5174537037</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46952,7 +46952,7 @@
         <v>46038</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -47009,7 +47009,7 @@
         <v>44909</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -47066,7 +47066,7 @@
         <v>46058.35196759259</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -47123,7 +47123,7 @@
         <v>45582.57542824074</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47185,7 +47185,7 @@
         <v>46058.52864583334</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47242,7 +47242,7 @@
         <v>46058.30956018518</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47299,7 +47299,7 @@
         <v>46058.38300925926</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -47356,7 +47356,7 @@
         <v>44425</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -47418,7 +47418,7 @@
         <v>45635.69581018519</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -47475,7 +47475,7 @@
         <v>44740.66997685185</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -47532,7 +47532,7 @@
         <v>44431</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -47589,7 +47589,7 @@
         <v>45194</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -47646,7 +47646,7 @@
         <v>45615.69570601852</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47703,7 +47703,7 @@
         <v>45628.58975694444</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47760,7 +47760,7 @@
         <v>45707</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47817,7 +47817,7 @@
         <v>46043</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47874,7 +47874,7 @@
         <v>45756.49009259259</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47931,7 +47931,7 @@
         <v>45880</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47988,7 +47988,7 @@
         <v>46064.42460648148</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -48045,7 +48045,7 @@
         <v>45702</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -48102,7 +48102,7 @@
         <v>45575.55570601852</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -48164,7 +48164,7 @@
         <v>45218</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -48226,7 +48226,7 @@
         <v>44457</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -48283,7 +48283,7 @@
         <v>44301</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -48345,7 +48345,7 @@
         <v>45590.39471064815</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -48402,7 +48402,7 @@
         <v>45434.65854166666</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -48459,7 +48459,7 @@
         <v>46071.45568287037</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -48516,7 +48516,7 @@
         <v>45082.31421296296</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -48578,7 +48578,7 @@
         <v>46029</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -48635,7 +48635,7 @@
         <v>46071.67334490741</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -48697,7 +48697,7 @@
         <v>46071.65692129629</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -48759,7 +48759,7 @@
         <v>45072</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48821,7 +48821,7 @@
         <v>45537.42240740741</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48878,7 +48878,7 @@
         <v>45519.52319444445</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48940,7 +48940,7 @@
         <v>45412.54541666667</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48997,7 +48997,7 @@
         <v>45387.24732638889</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49054,7 +49054,7 @@
         <v>45387.2521875</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -49111,7 +49111,7 @@
         <v>45554.7158912037</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -49173,7 +49173,7 @@
         <v>45141.76530092592</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -49230,7 +49230,7 @@
         <v>45400.66995370371</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -49292,7 +49292,7 @@
         <v>44389</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -49349,7 +49349,7 @@
         <v>44970.51849537037</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -49406,7 +49406,7 @@
         <v>45194</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -49463,7 +49463,7 @@
         <v>45218.488125</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -49525,7 +49525,7 @@
         <v>46030.47725694445</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -49582,7 +49582,7 @@
         <v>44866.79668981482</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -49639,7 +49639,7 @@
         <v>46031</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -49696,7 +49696,7 @@
         <v>45538</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -49753,7 +49753,7 @@
         <v>46030.44277777777</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49810,7 +49810,7 @@
         <v>45586</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -49872,7 +49872,7 @@
         <v>44621.85737268518</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49929,7 +49929,7 @@
         <v>45009.64217592592</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         <v>44566</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50043,7 +50043,7 @@
         <v>45667</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -50100,7 +50100,7 @@
         <v>45667</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -50162,7 +50162,7 @@
         <v>45139.63480324074</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -50224,7 +50224,7 @@
         <v>45575.57104166667</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -50281,7 +50281,7 @@
         <v>44602.45162037037</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -50338,7 +50338,7 @@
         <v>45103</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -50395,7 +50395,7 @@
         <v>45511.39445601852</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -50452,7 +50452,7 @@
         <v>44735.62539351852</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -50514,7 +50514,7 @@
         <v>45111</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -50571,7 +50571,7 @@
         <v>44950</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -50628,7 +50628,7 @@
         <v>44883</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -50685,7 +50685,7 @@
         <v>45254.68105324074</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -50747,7 +50747,7 @@
         <v>45525.7374537037</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -50804,7 +50804,7 @@
         <v>45177.33991898148</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         <v>45251</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -50923,7 +50923,7 @@
         <v>45393.35787037037</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50985,7 +50985,7 @@
         <v>45762.61817129629</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51042,7 +51042,7 @@
         <v>45107</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -51099,7 +51099,7 @@
         <v>44902</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -51156,7 +51156,7 @@
         <v>45744.32981481482</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -51213,7 +51213,7 @@
         <v>45519.52232638889</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -51275,7 +51275,7 @@
         <v>45107</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -51337,7 +51337,7 @@
         <v>44822</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -51394,7 +51394,7 @@
         <v>45274</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -51451,7 +51451,7 @@
         <v>45687</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -51508,7 +51508,7 @@
         <v>44438</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -51570,7 +51570,7 @@
         <v>45254</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -51632,7 +51632,7 @@
         <v>45736.308125</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -51689,7 +51689,7 @@
         <v>45095</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         <v>45571.71736111111</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -51808,7 +51808,7 @@
         <v>45575.56686342593</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -51870,7 +51870,7 @@
         <v>45575.56820601852</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -51932,7 +51932,7 @@
         <v>44916</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51989,7 +51989,7 @@
         <v>45170.45921296296</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -52051,7 +52051,7 @@
         <v>45546.68743055555</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -52113,7 +52113,7 @@
         <v>45211</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -52175,7 +52175,7 @@
         <v>44544</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -52232,7 +52232,7 @@
         <v>44473.6343287037</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -52289,7 +52289,7 @@
         <v>44484</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -52346,7 +52346,7 @@
         <v>45471.42659722222</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -52403,7 +52403,7 @@
         <v>45471.52072916667</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -52460,7 +52460,7 @@
         <v>45698</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -52522,7 +52522,7 @@
         <v>45698</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -52584,7 +52584,7 @@
         <v>45189</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -52641,7 +52641,7 @@
         <v>45372.40246527778</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -52698,7 +52698,7 @@
         <v>45079</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -52760,7 +52760,7 @@
         <v>45079</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -52822,7 +52822,7 @@
         <v>45462</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -52879,7 +52879,7 @@
         <v>45575.53331018519</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -52941,7 +52941,7 @@
         <v>45575.54489583334</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -53003,7 +53003,7 @@
         <v>45441.48670138889</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -53060,7 +53060,7 @@
         <v>44306.6371412037</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -53117,7 +53117,7 @@
         <v>45553</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -53179,7 +53179,7 @@
         <v>45646</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -53241,7 +53241,7 @@
         <v>45729.65061342593</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -53298,7 +53298,7 @@
         <v>45008</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -53360,7 +53360,7 @@
         <v>45113</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -53417,7 +53417,7 @@
         <v>45095</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -53474,7 +53474,7 @@
         <v>45377.48265046296</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -53531,7 +53531,7 @@
         <v>44342.39703703704</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -53593,7 +53593,7 @@
         <v>45664</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -53650,7 +53650,7 @@
         <v>45736</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -53707,7 +53707,7 @@
         <v>45274</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -53764,7 +53764,7 @@
         <v>45280</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         <v>44267</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -53883,7 +53883,7 @@
         <v>44890.46174768519</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -53940,7 +53940,7 @@
         <v>45334</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -53997,7 +53997,7 @@
         <v>45516.59447916667</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -54054,7 +54054,7 @@
         <v>44276</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -54111,7 +54111,7 @@
         <v>44753</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -54168,7 +54168,7 @@
         <v>45614.5968287037</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -54225,7 +54225,7 @@
         <v>45251.696875</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -54282,7 +54282,7 @@
         <v>45643</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -54339,7 +54339,7 @@
         <v>45749</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -54396,7 +54396,7 @@
         <v>45569.35209490741</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -54453,7 +54453,7 @@
         <v>45618.59456018519</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -54515,7 +54515,7 @@
         <v>45119</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -54577,7 +54577,7 @@
         <v>44946.54424768518</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -54634,7 +54634,7 @@
         <v>45618.58622685185</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -54696,7 +54696,7 @@
         <v>44809</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -54753,7 +54753,7 @@
         <v>45264.38084490741</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -54810,7 +54810,7 @@
         <v>45702</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -54867,7 +54867,7 @@
         <v>44564</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -54924,7 +54924,7 @@
         <v>45219</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -54986,7 +54986,7 @@
         <v>44665</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -55043,7 +55043,7 @@
         <v>45211</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -55100,7 +55100,7 @@
         <v>45593.59681712963</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -55157,7 +55157,7 @@
         <v>45749</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -55214,7 +55214,7 @@
         <v>45453.36664351852</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -55276,7 +55276,7 @@
         <v>44445.55690972223</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -55338,7 +55338,7 @@
         <v>45777.42628472222</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -55400,7 +55400,7 @@
         <v>45777.41673611111</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -55462,7 +55462,7 @@
         <v>45733.60959490741</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -55519,7 +55519,7 @@
         <v>45777</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -55581,7 +55581,7 @@
         <v>45777.43878472222</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -55643,7 +55643,7 @@
         <v>45776.65518518518</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -55700,7 +55700,7 @@
         <v>45783.71833333333</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -55757,7 +55757,7 @@
         <v>45567.68003472222</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -55814,7 +55814,7 @@
         <v>45509.73383101852</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -55871,7 +55871,7 @@
         <v>45460.46358796296</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -55928,7 +55928,7 @@
         <v>45569.3533912037</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -55985,7 +55985,7 @@
         <v>45253</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -56047,7 +56047,7 @@
         <v>45203.45681712963</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -56104,7 +56104,7 @@
         <v>45785.4253125</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -56161,7 +56161,7 @@
         <v>45229.66430555555</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -56223,7 +56223,7 @@
         <v>45267.69052083333</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -56285,7 +56285,7 @@
         <v>45537.65305555556</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -56347,7 +56347,7 @@
         <v>45788.42467592593</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -56404,7 +56404,7 @@
         <v>45537.665</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -56466,7 +56466,7 @@
         <v>45104.34107638889</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -56528,7 +56528,7 @@
         <v>45786</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -56590,7 +56590,7 @@
         <v>45639.30934027778</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -56647,7 +56647,7 @@
         <v>45791.50862268519</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -56704,7 +56704,7 @@
         <v>45181</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -56766,7 +56766,7 @@
         <v>45418.66800925926</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -56823,7 +56823,7 @@
         <v>45618</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -56880,7 +56880,7 @@
         <v>45667</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -56942,7 +56942,7 @@
         <v>45440.5433912037</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -56999,7 +56999,7 @@
         <v>45793.61047453704</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -57061,7 +57061,7 @@
         <v>45793.62422453704</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -57123,7 +57123,7 @@
         <v>45456.90869212963</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -57185,7 +57185,7 @@
         <v>45795.71300925926</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -57242,7 +57242,7 @@
         <v>45795.70912037037</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -57299,7 +57299,7 @@
         <v>45155.5653125</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -57356,7 +57356,7 @@
         <v>45244</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -57413,7 +57413,7 @@
         <v>45796.44885416667</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -57475,7 +57475,7 @@
         <v>45794.33498842592</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -57532,7 +57532,7 @@
         <v>45796</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -57594,7 +57594,7 @@
         <v>45794.3419212963</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -57651,7 +57651,7 @@
         <v>45796</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -57713,7 +57713,7 @@
         <v>45796.45054398148</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -57775,7 +57775,7 @@
         <v>45795.71547453704</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -57832,7 +57832,7 @@
         <v>45456.48927083334</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -57889,7 +57889,7 @@
         <v>45729.60775462963</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -57946,7 +57946,7 @@
         <v>45590.37590277778</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -58003,7 +58003,7 @@
         <v>45803</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -58065,7 +58065,7 @@
         <v>45804.45474537037</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -58122,7 +58122,7 @@
         <v>45804.67795138889</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -58179,7 +58179,7 @@
         <v>45804.45584490741</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -58236,7 +58236,7 @@
         <v>45812.56952546296</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -58298,7 +58298,7 @@
         <v>45812.57143518519</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -58360,7 +58360,7 @@
         <v>45812.57452546297</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -58422,7 +58422,7 @@
         <v>45812.57604166667</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -58484,7 +58484,7 @@
         <v>45817.6455324074</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
